--- a/data/HomeCredit_columns_description.xlsx
+++ b/data/HomeCredit_columns_description.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stewarta/repos/data-prep-visualization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBF3A6-4F44-4C4E-8973-C32B63C10D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96B140-8397-C544-9B24-3E43CE876F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3060" windowWidth="22980" windowHeight="15760" xr2:uid="{29B9F9DA-7F4B-F248-9441-0350956296E9}"/>
+    <workbookView xWindow="9120" yWindow="2720" windowWidth="27940" windowHeight="11700" xr2:uid="{29B9F9DA-7F4B-F248-9441-0350956296E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="HomeCredit_columns_description" localSheetId="0">Sheet1!$A$1:$F$220</definedName>
+    <definedName name="HomeCredit_columns_description" localSheetId="0">Sheet1!$A$1:$G$220</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="389">
   <si>
     <t>Table</t>
   </si>
@@ -667,9 +668,6 @@
     <t>hashed</t>
   </si>
   <si>
-    <t>SK_BUREAU_ID</t>
-  </si>
-  <si>
     <t>Recoded ID of previous Credit Bureau credit related to our loan (unique coding for each loan application)</t>
   </si>
   <si>
@@ -1177,16 +1175,43 @@
     <t>What the client actually paid on previous credit on this installment</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>numerical</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>application_train</t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>bureau_balance</t>
+  </si>
+  <si>
+    <t>POS_CASH_balance</t>
+  </si>
+  <si>
+    <t>credit_card_balance</t>
+  </si>
+  <si>
+    <t>previous_application</t>
+  </si>
+  <si>
+    <t>installments_payments</t>
+  </si>
+  <si>
+    <t>SK_ID_PREV</t>
+  </si>
+  <si>
+    <t>SK_ID_BUREAU</t>
   </si>
 </sst>
 </file>
@@ -1228,9 +1253,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,40 +1575,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44E080-EA83-704D-AB31-ED7BBE59EAAA}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>380</v>
-      </c>
       <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1590,16 +1620,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
       <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1607,16 +1640,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1624,16 +1660,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>378</v>
-      </c>
       <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1641,16 +1680,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>378</v>
-      </c>
       <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1658,16 +1700,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>378</v>
-      </c>
       <c r="E6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1675,16 +1720,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>378</v>
-      </c>
       <c r="E7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1692,16 +1740,19 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>379</v>
-      </c>
       <c r="E8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1709,16 +1760,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>379</v>
-      </c>
       <c r="E9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1726,16 +1780,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>379</v>
-      </c>
       <c r="E10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1743,16 +1800,19 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>379</v>
-      </c>
       <c r="E11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1760,16 +1820,19 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>379</v>
-      </c>
       <c r="E12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1777,16 +1840,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>378</v>
-      </c>
       <c r="E13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1794,16 +1860,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>378</v>
-      </c>
       <c r="E14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1811,16 +1880,19 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>378</v>
-      </c>
       <c r="E15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1828,16 +1900,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>378</v>
-      </c>
       <c r="E16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1845,16 +1920,19 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>378</v>
-      </c>
       <c r="E17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1862,19 +1940,22 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
-        <v>379</v>
-      </c>
       <c r="E18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1882,19 +1963,22 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>379</v>
-      </c>
       <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1902,19 +1986,22 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
-        <v>379</v>
-      </c>
       <c r="E20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1922,19 +2009,22 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
-        <v>379</v>
-      </c>
       <c r="E21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1942,19 +2032,22 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>379</v>
-      </c>
       <c r="E22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1962,16 +2055,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>379</v>
-      </c>
       <c r="E23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1979,16 +2075,19 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
-        <v>378</v>
-      </c>
       <c r="E24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1996,16 +2095,19 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
-        <v>378</v>
-      </c>
       <c r="E25" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
@@ -2013,16 +2115,19 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>378</v>
-      </c>
       <c r="E26" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2030,16 +2135,19 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>378</v>
-      </c>
       <c r="E27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2047,16 +2155,19 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>378</v>
-      </c>
       <c r="E28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2064,16 +2175,19 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
-        <v>378</v>
-      </c>
       <c r="E29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2081,16 +2195,19 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
-        <v>378</v>
-      </c>
       <c r="E30" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2098,16 +2215,19 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
-        <v>379</v>
-      </c>
       <c r="E31" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2115,16 +2235,19 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="D32" t="s">
-        <v>378</v>
-      </c>
       <c r="E32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2132,16 +2255,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="D33" t="s">
-        <v>378</v>
-      </c>
       <c r="E33" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2149,16 +2275,19 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>378</v>
-      </c>
       <c r="E34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2166,19 +2295,22 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" t="s">
-        <v>378</v>
-      </c>
       <c r="E35" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" t="s">
         <v>73</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2186,16 +2318,19 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
-        <v>378</v>
-      </c>
       <c r="E36" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2203,16 +2338,19 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
-        <v>378</v>
-      </c>
       <c r="E37" t="s">
+        <v>377</v>
+      </c>
+      <c r="F37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2220,16 +2358,19 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
-        <v>378</v>
-      </c>
       <c r="E38" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2237,16 +2378,19 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
-        <v>378</v>
-      </c>
       <c r="E39" t="s">
+        <v>377</v>
+      </c>
+      <c r="F39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2254,16 +2398,19 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
-        <v>378</v>
-      </c>
       <c r="E40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2271,16 +2418,19 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
+        <v>380</v>
+      </c>
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
-        <v>378</v>
-      </c>
       <c r="E41" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
@@ -2288,16 +2438,19 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
+        <v>380</v>
+      </c>
+      <c r="D42" t="s">
         <v>87</v>
       </c>
-      <c r="D42" t="s">
-        <v>378</v>
-      </c>
       <c r="E42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
@@ -2305,19 +2458,22 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
-        <v>379</v>
-      </c>
       <c r="E43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" t="s">
         <v>90</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
@@ -2325,19 +2481,22 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" t="s">
         <v>92</v>
       </c>
-      <c r="D44" t="s">
-        <v>379</v>
-      </c>
       <c r="E44" t="s">
+        <v>378</v>
+      </c>
+      <c r="F44" t="s">
         <v>90</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
@@ -2345,19 +2504,22 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
-        <v>379</v>
-      </c>
       <c r="E45" t="s">
+        <v>378</v>
+      </c>
+      <c r="F45" t="s">
         <v>90</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>47</v>
       </c>
@@ -2365,19 +2527,22 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" t="s">
         <v>94</v>
       </c>
-      <c r="D46" t="s">
-        <v>379</v>
-      </c>
       <c r="E46" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" t="s">
         <v>95</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2385,19 +2550,22 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="D47" t="s">
-        <v>379</v>
-      </c>
       <c r="E47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" t="s">
         <v>95</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>49</v>
       </c>
@@ -2405,19 +2573,22 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" t="s">
         <v>97</v>
       </c>
-      <c r="D48" t="s">
-        <v>379</v>
-      </c>
       <c r="E48" t="s">
+        <v>378</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2425,19 +2596,22 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" t="s">
         <v>98</v>
       </c>
-      <c r="D49" t="s">
-        <v>379</v>
-      </c>
       <c r="E49" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51</v>
       </c>
@@ -2445,19 +2619,22 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>380</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="D50" t="s">
-        <v>379</v>
-      </c>
       <c r="E50" t="s">
+        <v>378</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>52</v>
       </c>
@@ -2465,19 +2642,22 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" t="s">
         <v>100</v>
       </c>
-      <c r="D51" t="s">
-        <v>379</v>
-      </c>
       <c r="E51" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>53</v>
       </c>
@@ -2485,19 +2665,22 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>379</v>
-      </c>
       <c r="E52" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>54</v>
       </c>
@@ -2505,19 +2688,22 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
+        <v>380</v>
+      </c>
+      <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="D53" t="s">
-        <v>379</v>
-      </c>
       <c r="E53" t="s">
+        <v>378</v>
+      </c>
+      <c r="F53" t="s">
         <v>95</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>55</v>
       </c>
@@ -2525,19 +2711,22 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" t="s">
         <v>103</v>
       </c>
-      <c r="D54" t="s">
-        <v>379</v>
-      </c>
       <c r="E54" t="s">
+        <v>378</v>
+      </c>
+      <c r="F54" t="s">
         <v>95</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
@@ -2545,19 +2734,22 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" t="s">
         <v>104</v>
       </c>
-      <c r="D55" t="s">
-        <v>379</v>
-      </c>
       <c r="E55" t="s">
+        <v>378</v>
+      </c>
+      <c r="F55" t="s">
         <v>95</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>57</v>
       </c>
@@ -2565,19 +2757,22 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" t="s">
         <v>105</v>
       </c>
-      <c r="D56" t="s">
-        <v>379</v>
-      </c>
       <c r="E56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56" t="s">
         <v>95</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>58</v>
       </c>
@@ -2585,19 +2780,22 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" t="s">
         <v>106</v>
       </c>
-      <c r="D57" t="s">
-        <v>379</v>
-      </c>
       <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" t="s">
         <v>95</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>59</v>
       </c>
@@ -2605,19 +2803,22 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
+        <v>380</v>
+      </c>
+      <c r="D58" t="s">
         <v>107</v>
       </c>
-      <c r="D58" t="s">
-        <v>379</v>
-      </c>
       <c r="E58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" t="s">
         <v>95</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
@@ -2625,19 +2826,22 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" t="s">
         <v>108</v>
       </c>
-      <c r="D59" t="s">
-        <v>379</v>
-      </c>
       <c r="E59" t="s">
+        <v>378</v>
+      </c>
+      <c r="F59" t="s">
         <v>95</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>61</v>
       </c>
@@ -2645,19 +2849,22 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
       </c>
-      <c r="D60" t="s">
-        <v>379</v>
-      </c>
       <c r="E60" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60" t="s">
         <v>95</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>62</v>
       </c>
@@ -2665,19 +2872,22 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" t="s">
         <v>110</v>
       </c>
-      <c r="D61" t="s">
-        <v>379</v>
-      </c>
       <c r="E61" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61" t="s">
         <v>95</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>63</v>
       </c>
@@ -2685,19 +2895,22 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D62" t="s">
         <v>111</v>
       </c>
-      <c r="D62" t="s">
-        <v>379</v>
-      </c>
       <c r="E62" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" t="s">
         <v>95</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>64</v>
       </c>
@@ -2705,19 +2918,22 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" t="s">
         <v>112</v>
       </c>
-      <c r="D63" t="s">
-        <v>379</v>
-      </c>
       <c r="E63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" t="s">
         <v>95</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>65</v>
       </c>
@@ -2725,19 +2941,22 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
+        <v>380</v>
+      </c>
+      <c r="D64" t="s">
         <v>113</v>
       </c>
-      <c r="D64" t="s">
-        <v>379</v>
-      </c>
       <c r="E64" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64" t="s">
         <v>95</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>66</v>
       </c>
@@ -2745,19 +2964,22 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" t="s">
         <v>114</v>
       </c>
-      <c r="D65" t="s">
-        <v>379</v>
-      </c>
       <c r="E65" t="s">
+        <v>378</v>
+      </c>
+      <c r="F65" t="s">
         <v>95</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>67</v>
       </c>
@@ -2765,19 +2987,22 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" t="s">
         <v>115</v>
       </c>
-      <c r="D66" t="s">
-        <v>379</v>
-      </c>
       <c r="E66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" t="s">
         <v>95</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>68</v>
       </c>
@@ -2785,19 +3010,22 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" t="s">
         <v>116</v>
       </c>
-      <c r="D67" t="s">
-        <v>379</v>
-      </c>
       <c r="E67" t="s">
+        <v>378</v>
+      </c>
+      <c r="F67" t="s">
         <v>95</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>69</v>
       </c>
@@ -2805,19 +3033,22 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
+        <v>380</v>
+      </c>
+      <c r="D68" t="s">
         <v>117</v>
       </c>
-      <c r="D68" t="s">
-        <v>379</v>
-      </c>
       <c r="E68" t="s">
+        <v>378</v>
+      </c>
+      <c r="F68" t="s">
         <v>95</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70</v>
       </c>
@@ -2825,19 +3056,22 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D69" t="s">
         <v>118</v>
       </c>
-      <c r="D69" t="s">
-        <v>379</v>
-      </c>
       <c r="E69" t="s">
+        <v>378</v>
+      </c>
+      <c r="F69" t="s">
         <v>95</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71</v>
       </c>
@@ -2845,19 +3079,22 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
+        <v>380</v>
+      </c>
+      <c r="D70" t="s">
         <v>119</v>
       </c>
-      <c r="D70" t="s">
-        <v>379</v>
-      </c>
       <c r="E70" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70" t="s">
         <v>95</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>72</v>
       </c>
@@ -2865,19 +3102,22 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" t="s">
         <v>120</v>
       </c>
-      <c r="D71" t="s">
-        <v>379</v>
-      </c>
       <c r="E71" t="s">
+        <v>378</v>
+      </c>
+      <c r="F71" t="s">
         <v>95</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>73</v>
       </c>
@@ -2885,19 +3125,22 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" t="s">
         <v>121</v>
       </c>
-      <c r="D72" t="s">
-        <v>379</v>
-      </c>
       <c r="E72" t="s">
+        <v>378</v>
+      </c>
+      <c r="F72" t="s">
         <v>95</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>74</v>
       </c>
@@ -2905,19 +3148,22 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>380</v>
+      </c>
+      <c r="D73" t="s">
         <v>122</v>
       </c>
-      <c r="D73" t="s">
-        <v>379</v>
-      </c>
       <c r="E73" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" t="s">
         <v>95</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>75</v>
       </c>
@@ -2925,19 +3171,22 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
+        <v>380</v>
+      </c>
+      <c r="D74" t="s">
         <v>123</v>
       </c>
-      <c r="D74" t="s">
-        <v>379</v>
-      </c>
       <c r="E74" t="s">
+        <v>378</v>
+      </c>
+      <c r="F74" t="s">
         <v>95</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>76</v>
       </c>
@@ -2945,19 +3194,22 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" t="s">
         <v>124</v>
       </c>
-      <c r="D75" t="s">
-        <v>379</v>
-      </c>
       <c r="E75" t="s">
+        <v>378</v>
+      </c>
+      <c r="F75" t="s">
         <v>95</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>77</v>
       </c>
@@ -2965,19 +3217,22 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
+        <v>380</v>
+      </c>
+      <c r="D76" t="s">
         <v>125</v>
       </c>
-      <c r="D76" t="s">
-        <v>379</v>
-      </c>
       <c r="E76" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" t="s">
         <v>95</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>78</v>
       </c>
@@ -2985,19 +3240,22 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77" t="s">
         <v>126</v>
       </c>
-      <c r="D77" t="s">
-        <v>379</v>
-      </c>
       <c r="E77" t="s">
+        <v>378</v>
+      </c>
+      <c r="F77" t="s">
         <v>95</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>79</v>
       </c>
@@ -3005,19 +3263,22 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" t="s">
         <v>127</v>
       </c>
-      <c r="D78" t="s">
-        <v>379</v>
-      </c>
       <c r="E78" t="s">
+        <v>378</v>
+      </c>
+      <c r="F78" t="s">
         <v>95</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>80</v>
       </c>
@@ -3025,19 +3286,22 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" t="s">
         <v>128</v>
       </c>
-      <c r="D79" t="s">
-        <v>379</v>
-      </c>
       <c r="E79" t="s">
+        <v>378</v>
+      </c>
+      <c r="F79" t="s">
         <v>95</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>81</v>
       </c>
@@ -3045,19 +3309,22 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" t="s">
         <v>129</v>
       </c>
-      <c r="D80" t="s">
-        <v>379</v>
-      </c>
       <c r="E80" t="s">
+        <v>378</v>
+      </c>
+      <c r="F80" t="s">
         <v>95</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>82</v>
       </c>
@@ -3065,19 +3332,22 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="D81" t="s">
-        <v>379</v>
-      </c>
       <c r="E81" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" t="s">
         <v>95</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>83</v>
       </c>
@@ -3085,19 +3355,22 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" t="s">
         <v>131</v>
       </c>
-      <c r="D82" t="s">
-        <v>379</v>
-      </c>
       <c r="E82" t="s">
+        <v>378</v>
+      </c>
+      <c r="F82" t="s">
         <v>95</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>84</v>
       </c>
@@ -3105,19 +3378,22 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
+        <v>380</v>
+      </c>
+      <c r="D83" t="s">
         <v>132</v>
       </c>
-      <c r="D83" t="s">
-        <v>379</v>
-      </c>
       <c r="E83" t="s">
+        <v>378</v>
+      </c>
+      <c r="F83" t="s">
         <v>95</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>85</v>
       </c>
@@ -3125,19 +3401,22 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" t="s">
         <v>133</v>
       </c>
-      <c r="D84" t="s">
-        <v>379</v>
-      </c>
       <c r="E84" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" t="s">
         <v>95</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>86</v>
       </c>
@@ -3145,19 +3424,22 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="D85" t="s">
-        <v>379</v>
-      </c>
       <c r="E85" t="s">
+        <v>378</v>
+      </c>
+      <c r="F85" t="s">
         <v>95</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>87</v>
       </c>
@@ -3165,19 +3447,22 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
+        <v>380</v>
+      </c>
+      <c r="D86" t="s">
         <v>135</v>
       </c>
-      <c r="D86" t="s">
-        <v>379</v>
-      </c>
       <c r="E86" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" t="s">
         <v>95</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>88</v>
       </c>
@@ -3185,19 +3470,22 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
+        <v>380</v>
+      </c>
+      <c r="D87" t="s">
         <v>136</v>
       </c>
-      <c r="D87" t="s">
-        <v>379</v>
-      </c>
       <c r="E87" t="s">
+        <v>378</v>
+      </c>
+      <c r="F87" t="s">
         <v>95</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>89</v>
       </c>
@@ -3205,19 +3493,22 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
+        <v>380</v>
+      </c>
+      <c r="D88" t="s">
         <v>137</v>
       </c>
-      <c r="D88" t="s">
-        <v>378</v>
-      </c>
       <c r="E88" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" t="s">
         <v>95</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>90</v>
       </c>
@@ -3225,19 +3516,22 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
+        <v>380</v>
+      </c>
+      <c r="D89" t="s">
         <v>138</v>
       </c>
-      <c r="D89" t="s">
-        <v>378</v>
-      </c>
       <c r="E89" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" t="s">
         <v>95</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>91</v>
       </c>
@@ -3245,19 +3539,22 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" t="s">
         <v>139</v>
       </c>
-      <c r="D90" t="s">
-        <v>379</v>
-      </c>
       <c r="E90" t="s">
+        <v>378</v>
+      </c>
+      <c r="F90" t="s">
         <v>95</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>92</v>
       </c>
@@ -3265,19 +3562,22 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" t="s">
         <v>140</v>
       </c>
-      <c r="D91" t="s">
-        <v>378</v>
-      </c>
       <c r="E91" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" t="s">
         <v>95</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93</v>
       </c>
@@ -3285,19 +3585,22 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
+        <v>380</v>
+      </c>
+      <c r="D92" t="s">
         <v>141</v>
       </c>
-      <c r="D92" t="s">
-        <v>378</v>
-      </c>
       <c r="E92" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" t="s">
         <v>95</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>94</v>
       </c>
@@ -3305,16 +3608,19 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
+        <v>380</v>
+      </c>
+      <c r="D93" t="s">
         <v>142</v>
       </c>
-      <c r="D93" t="s">
-        <v>379</v>
-      </c>
       <c r="E93" t="s">
+        <v>378</v>
+      </c>
+      <c r="F93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3322,16 +3628,19 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
+        <v>380</v>
+      </c>
+      <c r="D94" t="s">
         <v>144</v>
       </c>
-      <c r="D94" t="s">
-        <v>379</v>
-      </c>
       <c r="E94" t="s">
+        <v>378</v>
+      </c>
+      <c r="F94" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>96</v>
       </c>
@@ -3339,16 +3648,19 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" t="s">
         <v>146</v>
       </c>
-      <c r="D95" t="s">
-        <v>379</v>
-      </c>
       <c r="E95" t="s">
+        <v>378</v>
+      </c>
+      <c r="F95" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>97</v>
       </c>
@@ -3356,16 +3668,19 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
+        <v>380</v>
+      </c>
+      <c r="D96" t="s">
         <v>148</v>
       </c>
-      <c r="D96" t="s">
-        <v>379</v>
-      </c>
       <c r="E96" t="s">
+        <v>378</v>
+      </c>
+      <c r="F96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>98</v>
       </c>
@@ -3373,16 +3688,19 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
+        <v>380</v>
+      </c>
+      <c r="D97" t="s">
         <v>150</v>
       </c>
-      <c r="D97" t="s">
-        <v>379</v>
-      </c>
       <c r="E97" t="s">
+        <v>378</v>
+      </c>
+      <c r="F97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>99</v>
       </c>
@@ -3390,16 +3708,19 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" t="s">
         <v>152</v>
       </c>
-      <c r="D98" t="s">
-        <v>378</v>
-      </c>
       <c r="E98" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>100</v>
       </c>
@@ -3407,16 +3728,19 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" t="s">
         <v>154</v>
       </c>
-      <c r="D99" t="s">
-        <v>378</v>
-      </c>
       <c r="E99" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>101</v>
       </c>
@@ -3424,16 +3748,19 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100" t="s">
         <v>156</v>
       </c>
-      <c r="D100" t="s">
-        <v>378</v>
-      </c>
       <c r="E100" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>102</v>
       </c>
@@ -3441,16 +3768,19 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" t="s">
         <v>158</v>
       </c>
-      <c r="D101" t="s">
-        <v>378</v>
-      </c>
       <c r="E101" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>103</v>
       </c>
@@ -3458,16 +3788,19 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
+        <v>380</v>
+      </c>
+      <c r="D102" t="s">
         <v>160</v>
       </c>
-      <c r="D102" t="s">
-        <v>378</v>
-      </c>
       <c r="E102" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>104</v>
       </c>
@@ -3475,16 +3808,19 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" t="s">
         <v>162</v>
       </c>
-      <c r="D103" t="s">
-        <v>378</v>
-      </c>
       <c r="E103" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>105</v>
       </c>
@@ -3492,16 +3828,19 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>380</v>
+      </c>
+      <c r="D104" t="s">
         <v>164</v>
       </c>
-      <c r="D104" t="s">
-        <v>378</v>
-      </c>
       <c r="E104" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>106</v>
       </c>
@@ -3509,16 +3848,19 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
+        <v>380</v>
+      </c>
+      <c r="D105" t="s">
         <v>166</v>
       </c>
-      <c r="D105" t="s">
-        <v>378</v>
-      </c>
       <c r="E105" t="s">
+        <v>377</v>
+      </c>
+      <c r="F105" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>107</v>
       </c>
@@ -3526,16 +3868,19 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" t="s">
         <v>168</v>
       </c>
-      <c r="D106" t="s">
-        <v>378</v>
-      </c>
       <c r="E106" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>108</v>
       </c>
@@ -3543,16 +3888,19 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>380</v>
+      </c>
+      <c r="D107" t="s">
         <v>170</v>
       </c>
-      <c r="D107" t="s">
-        <v>378</v>
-      </c>
       <c r="E107" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>109</v>
       </c>
@@ -3560,16 +3908,19 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" t="s">
         <v>172</v>
       </c>
-      <c r="D108" t="s">
-        <v>378</v>
-      </c>
       <c r="E108" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>110</v>
       </c>
@@ -3577,16 +3928,19 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
+        <v>380</v>
+      </c>
+      <c r="D109" t="s">
         <v>174</v>
       </c>
-      <c r="D109" t="s">
-        <v>378</v>
-      </c>
       <c r="E109" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>111</v>
       </c>
@@ -3594,16 +3948,19 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
+        <v>380</v>
+      </c>
+      <c r="D110" t="s">
         <v>176</v>
       </c>
-      <c r="D110" t="s">
-        <v>378</v>
-      </c>
       <c r="E110" t="s">
+        <v>377</v>
+      </c>
+      <c r="F110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>112</v>
       </c>
@@ -3611,16 +3968,19 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111" t="s">
         <v>178</v>
       </c>
-      <c r="D111" t="s">
-        <v>378</v>
-      </c>
       <c r="E111" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>113</v>
       </c>
@@ -3628,16 +3988,19 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
+        <v>380</v>
+      </c>
+      <c r="D112" t="s">
         <v>180</v>
       </c>
-      <c r="D112" t="s">
-        <v>378</v>
-      </c>
       <c r="E112" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>114</v>
       </c>
@@ -3645,16 +4008,19 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
+        <v>380</v>
+      </c>
+      <c r="D113" t="s">
         <v>182</v>
       </c>
-      <c r="D113" t="s">
-        <v>378</v>
-      </c>
       <c r="E113" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>115</v>
       </c>
@@ -3662,16 +4028,19 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" t="s">
         <v>184</v>
       </c>
-      <c r="D114" t="s">
-        <v>378</v>
-      </c>
       <c r="E114" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>116</v>
       </c>
@@ -3679,16 +4048,19 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
+        <v>380</v>
+      </c>
+      <c r="D115" t="s">
         <v>186</v>
       </c>
-      <c r="D115" t="s">
-        <v>378</v>
-      </c>
       <c r="E115" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>117</v>
       </c>
@@ -3696,16 +4068,19 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
+        <v>380</v>
+      </c>
+      <c r="D116" t="s">
         <v>188</v>
       </c>
-      <c r="D116" t="s">
-        <v>378</v>
-      </c>
       <c r="E116" t="s">
+        <v>377</v>
+      </c>
+      <c r="F116" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>118</v>
       </c>
@@ -3713,16 +4088,19 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" t="s">
         <v>190</v>
       </c>
-      <c r="D117" t="s">
-        <v>378</v>
-      </c>
       <c r="E117" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>119</v>
       </c>
@@ -3730,16 +4108,19 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
+        <v>380</v>
+      </c>
+      <c r="D118" t="s">
         <v>192</v>
       </c>
-      <c r="D118" t="s">
-        <v>379</v>
-      </c>
       <c r="E118" t="s">
+        <v>378</v>
+      </c>
+      <c r="F118" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>120</v>
       </c>
@@ -3747,16 +4128,19 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
+        <v>380</v>
+      </c>
+      <c r="D119" t="s">
         <v>194</v>
       </c>
-      <c r="D119" t="s">
-        <v>379</v>
-      </c>
       <c r="E119" t="s">
+        <v>378</v>
+      </c>
+      <c r="F119" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>121</v>
       </c>
@@ -3764,16 +4148,19 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
+        <v>380</v>
+      </c>
+      <c r="D120" t="s">
         <v>196</v>
       </c>
-      <c r="D120" t="s">
-        <v>379</v>
-      </c>
       <c r="E120" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>122</v>
       </c>
@@ -3781,16 +4168,19 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" t="s">
         <v>198</v>
       </c>
-      <c r="D121" t="s">
-        <v>379</v>
-      </c>
       <c r="E121" t="s">
+        <v>378</v>
+      </c>
+      <c r="F121" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>123</v>
       </c>
@@ -3798,16 +4188,19 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" t="s">
         <v>200</v>
       </c>
-      <c r="D122" t="s">
-        <v>379</v>
-      </c>
       <c r="E122" t="s">
+        <v>378</v>
+      </c>
+      <c r="F122" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>124</v>
       </c>
@@ -3815,36 +4208,42 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
+        <v>380</v>
+      </c>
+      <c r="D123" t="s">
         <v>202</v>
       </c>
-      <c r="D123" t="s">
-        <v>379</v>
-      </c>
       <c r="E123" t="s">
+        <v>378</v>
+      </c>
+      <c r="F123" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
         <v>125</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>126</v>
       </c>
@@ -3852,19 +4251,22 @@
         <v>204</v>
       </c>
       <c r="C125" t="s">
+        <v>381</v>
+      </c>
+      <c r="D125" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125" t="s">
+        <v>378</v>
+      </c>
+      <c r="F125" t="s">
         <v>207</v>
       </c>
-      <c r="D125" t="s">
-        <v>377</v>
-      </c>
-      <c r="E125" t="s">
-        <v>208</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>127</v>
       </c>
@@ -3872,16 +4274,19 @@
         <v>204</v>
       </c>
       <c r="C126" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" t="s">
         <v>209</v>
       </c>
-      <c r="D126" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>128</v>
       </c>
@@ -3889,19 +4294,22 @@
         <v>204</v>
       </c>
       <c r="C127" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" t="s">
         <v>211</v>
       </c>
-      <c r="D127" t="s">
-        <v>378</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="G127" t="s">
         <v>212</v>
       </c>
-      <c r="F127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>129</v>
       </c>
@@ -3909,19 +4317,22 @@
         <v>204</v>
       </c>
       <c r="C128" t="s">
+        <v>381</v>
+      </c>
+      <c r="D128" t="s">
+        <v>213</v>
+      </c>
+      <c r="E128" t="s">
+        <v>378</v>
+      </c>
+      <c r="F128" t="s">
         <v>214</v>
       </c>
-      <c r="D128" t="s">
-        <v>379</v>
-      </c>
-      <c r="E128" t="s">
-        <v>215</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>130</v>
       </c>
@@ -3929,16 +4340,19 @@
         <v>204</v>
       </c>
       <c r="C129" t="s">
+        <v>381</v>
+      </c>
+      <c r="D129" t="s">
+        <v>215</v>
+      </c>
+      <c r="E129" t="s">
+        <v>378</v>
+      </c>
+      <c r="F129" t="s">
         <v>216</v>
       </c>
-      <c r="D129" t="s">
-        <v>379</v>
-      </c>
-      <c r="E129" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>131</v>
       </c>
@@ -3946,19 +4360,22 @@
         <v>204</v>
       </c>
       <c r="C130" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" t="s">
+        <v>378</v>
+      </c>
+      <c r="F130" t="s">
         <v>218</v>
       </c>
-      <c r="D130" t="s">
-        <v>379</v>
-      </c>
-      <c r="E130" t="s">
-        <v>219</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>132</v>
       </c>
@@ -3966,19 +4383,22 @@
         <v>204</v>
       </c>
       <c r="C131" t="s">
+        <v>381</v>
+      </c>
+      <c r="D131" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" t="s">
+        <v>378</v>
+      </c>
+      <c r="F131" t="s">
         <v>220</v>
       </c>
-      <c r="D131" t="s">
-        <v>379</v>
-      </c>
-      <c r="E131" t="s">
-        <v>221</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>133</v>
       </c>
@@ -3986,16 +4406,19 @@
         <v>204</v>
       </c>
       <c r="C132" t="s">
+        <v>381</v>
+      </c>
+      <c r="D132" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" t="s">
         <v>222</v>
       </c>
-      <c r="D132" t="s">
-        <v>379</v>
-      </c>
-      <c r="E132" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>134</v>
       </c>
@@ -4003,16 +4426,19 @@
         <v>204</v>
       </c>
       <c r="C133" t="s">
+        <v>381</v>
+      </c>
+      <c r="D133" t="s">
+        <v>223</v>
+      </c>
+      <c r="E133" t="s">
+        <v>378</v>
+      </c>
+      <c r="F133" t="s">
         <v>224</v>
       </c>
-      <c r="D133" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>135</v>
       </c>
@@ -4020,16 +4446,19 @@
         <v>204</v>
       </c>
       <c r="C134" t="s">
+        <v>381</v>
+      </c>
+      <c r="D134" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" t="s">
+        <v>378</v>
+      </c>
+      <c r="F134" t="s">
         <v>226</v>
       </c>
-      <c r="D134" t="s">
-        <v>379</v>
-      </c>
-      <c r="E134" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>136</v>
       </c>
@@ -4037,16 +4466,19 @@
         <v>204</v>
       </c>
       <c r="C135" t="s">
+        <v>381</v>
+      </c>
+      <c r="D135" t="s">
+        <v>227</v>
+      </c>
+      <c r="E135" t="s">
+        <v>378</v>
+      </c>
+      <c r="F135" t="s">
         <v>228</v>
       </c>
-      <c r="D135" t="s">
-        <v>379</v>
-      </c>
-      <c r="E135" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>137</v>
       </c>
@@ -4054,16 +4486,19 @@
         <v>204</v>
       </c>
       <c r="C136" t="s">
+        <v>381</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" t="s">
+        <v>378</v>
+      </c>
+      <c r="F136" t="s">
         <v>230</v>
       </c>
-      <c r="D136" t="s">
-        <v>379</v>
-      </c>
-      <c r="E136" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>138</v>
       </c>
@@ -4071,16 +4506,19 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" t="s">
+        <v>378</v>
+      </c>
+      <c r="F137" t="s">
         <v>232</v>
       </c>
-      <c r="D137" t="s">
-        <v>379</v>
-      </c>
-      <c r="E137" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>139</v>
       </c>
@@ -4088,16 +4526,19 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
+        <v>381</v>
+      </c>
+      <c r="D138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" t="s">
         <v>234</v>
       </c>
-      <c r="D138" t="s">
-        <v>378</v>
-      </c>
-      <c r="E138" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>140</v>
       </c>
@@ -4105,19 +4546,22 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" t="s">
+        <v>235</v>
+      </c>
+      <c r="E139" t="s">
+        <v>378</v>
+      </c>
+      <c r="F139" t="s">
         <v>236</v>
       </c>
-      <c r="D139" t="s">
-        <v>379</v>
-      </c>
-      <c r="E139" t="s">
-        <v>237</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>141</v>
       </c>
@@ -4125,1442 +4569,2803 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
+        <v>381</v>
+      </c>
+      <c r="D140" t="s">
         <v>23</v>
       </c>
-      <c r="D140" t="s">
-        <v>379</v>
-      </c>
       <c r="E140" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>142</v>
       </c>
       <c r="B141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" t="s">
+        <v>378</v>
+      </c>
+      <c r="F141" t="s">
         <v>239</v>
       </c>
-      <c r="C141" t="s">
-        <v>207</v>
-      </c>
-      <c r="D141" t="s">
-        <v>377</v>
-      </c>
-      <c r="E141" t="s">
-        <v>240</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C142" t="s">
+        <v>382</v>
+      </c>
+      <c r="D142" t="s">
+        <v>240</v>
+      </c>
+      <c r="E142" t="s">
+        <v>378</v>
+      </c>
+      <c r="F142" t="s">
         <v>241</v>
       </c>
-      <c r="D142" t="s">
-        <v>379</v>
-      </c>
-      <c r="E142" t="s">
-        <v>242</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
+        <v>382</v>
+      </c>
+      <c r="D143" t="s">
+        <v>242</v>
+      </c>
+      <c r="E143" t="s">
+        <v>377</v>
+      </c>
+      <c r="F143" t="s">
         <v>243</v>
       </c>
-      <c r="D143" t="s">
-        <v>378</v>
-      </c>
-      <c r="E143" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C144" t="s">
+        <v>383</v>
+      </c>
+      <c r="D144" t="s">
+        <v>387</v>
+      </c>
+      <c r="E144" t="s">
+        <v>378</v>
+      </c>
+      <c r="F144" t="s">
         <v>246</v>
       </c>
-      <c r="D144" t="s">
-        <v>377</v>
-      </c>
-      <c r="E144" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C145" t="s">
+        <v>383</v>
+      </c>
+      <c r="D145" t="s">
         <v>5</v>
       </c>
-      <c r="D145" t="s">
-        <v>377</v>
-      </c>
       <c r="E145" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="D146" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="E146" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
       <c r="F146" t="s">
+        <v>247</v>
+      </c>
+      <c r="G146" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C147" t="s">
+        <v>383</v>
+      </c>
+      <c r="D147" t="s">
+        <v>248</v>
+      </c>
+      <c r="E147" t="s">
+        <v>378</v>
+      </c>
+      <c r="F147" t="s">
         <v>249</v>
       </c>
-      <c r="D147" t="s">
-        <v>379</v>
-      </c>
-      <c r="E147" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
+        <v>383</v>
+      </c>
+      <c r="D148" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" t="s">
+        <v>378</v>
+      </c>
+      <c r="F148" t="s">
         <v>251</v>
       </c>
-      <c r="D148" t="s">
-        <v>379</v>
-      </c>
-      <c r="E148" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C149" t="s">
+        <v>383</v>
+      </c>
+      <c r="D149" t="s">
+        <v>252</v>
+      </c>
+      <c r="E149" t="s">
+        <v>377</v>
+      </c>
+      <c r="F149" t="s">
         <v>253</v>
       </c>
-      <c r="D149" t="s">
-        <v>378</v>
-      </c>
-      <c r="E149" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C150" t="s">
+        <v>383</v>
+      </c>
+      <c r="D150" t="s">
+        <v>254</v>
+      </c>
+      <c r="E150" t="s">
+        <v>378</v>
+      </c>
+      <c r="F150" t="s">
         <v>255</v>
       </c>
-      <c r="D150" t="s">
-        <v>379</v>
-      </c>
-      <c r="E150" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C151" t="s">
+        <v>383</v>
+      </c>
+      <c r="D151" t="s">
+        <v>256</v>
+      </c>
+      <c r="E151" t="s">
+        <v>378</v>
+      </c>
+      <c r="F151" t="s">
         <v>257</v>
       </c>
-      <c r="D151" t="s">
-        <v>379</v>
-      </c>
-      <c r="E151" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>153</v>
       </c>
       <c r="B152" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" t="s">
+        <v>384</v>
+      </c>
+      <c r="D152" t="s">
+        <v>387</v>
+      </c>
+      <c r="E152" t="s">
+        <v>378</v>
+      </c>
+      <c r="F152" t="s">
         <v>259</v>
       </c>
-      <c r="C152" t="s">
-        <v>246</v>
-      </c>
-      <c r="D152" t="s">
-        <v>377</v>
-      </c>
-      <c r="E152" t="s">
-        <v>260</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
+        <v>384</v>
+      </c>
+      <c r="D153" t="s">
         <v>5</v>
       </c>
-      <c r="D153" t="s">
-        <v>377</v>
-      </c>
       <c r="E153" t="s">
+        <v>378</v>
+      </c>
+      <c r="F153" t="s">
         <v>6</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
+        <v>384</v>
+      </c>
+      <c r="D154" t="s">
+        <v>240</v>
+      </c>
+      <c r="E154" t="s">
+        <v>378</v>
+      </c>
+      <c r="F154" t="s">
         <v>241</v>
       </c>
-      <c r="D154" t="s">
-        <v>379</v>
-      </c>
-      <c r="E154" t="s">
-        <v>242</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C155" t="s">
+        <v>384</v>
+      </c>
+      <c r="D155" t="s">
+        <v>260</v>
+      </c>
+      <c r="E155" t="s">
+        <v>378</v>
+      </c>
+      <c r="F155" t="s">
         <v>261</v>
       </c>
-      <c r="D155" t="s">
-        <v>379</v>
-      </c>
-      <c r="E155" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s">
+        <v>384</v>
+      </c>
+      <c r="D156" t="s">
+        <v>262</v>
+      </c>
+      <c r="E156" t="s">
+        <v>378</v>
+      </c>
+      <c r="F156" t="s">
         <v>263</v>
       </c>
-      <c r="D156" t="s">
-        <v>379</v>
-      </c>
-      <c r="E156" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157" t="s">
+        <v>264</v>
+      </c>
+      <c r="E157" t="s">
+        <v>378</v>
+      </c>
+      <c r="F157" t="s">
         <v>265</v>
       </c>
-      <c r="D157" t="s">
-        <v>379</v>
-      </c>
-      <c r="E157" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" t="s">
+        <v>384</v>
+      </c>
+      <c r="D158" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" t="s">
+        <v>378</v>
+      </c>
+      <c r="F158" t="s">
         <v>267</v>
       </c>
-      <c r="D158" t="s">
-        <v>379</v>
-      </c>
-      <c r="E158" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
+        <v>384</v>
+      </c>
+      <c r="D159" t="s">
+        <v>268</v>
+      </c>
+      <c r="E159" t="s">
+        <v>378</v>
+      </c>
+      <c r="F159" t="s">
         <v>269</v>
       </c>
-      <c r="D159" t="s">
-        <v>379</v>
-      </c>
-      <c r="E159" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
+        <v>384</v>
+      </c>
+      <c r="D160" t="s">
+        <v>270</v>
+      </c>
+      <c r="E160" t="s">
+        <v>378</v>
+      </c>
+      <c r="F160" t="s">
         <v>271</v>
       </c>
-      <c r="D160" t="s">
-        <v>379</v>
-      </c>
-      <c r="E160" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C161" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" t="s">
+        <v>272</v>
+      </c>
+      <c r="E161" t="s">
+        <v>378</v>
+      </c>
+      <c r="F161" t="s">
         <v>273</v>
       </c>
-      <c r="D161" t="s">
-        <v>379</v>
-      </c>
-      <c r="E161" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C162" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" t="s">
+        <v>274</v>
+      </c>
+      <c r="E162" t="s">
+        <v>378</v>
+      </c>
+      <c r="F162" t="s">
         <v>275</v>
       </c>
-      <c r="D162" t="s">
-        <v>379</v>
-      </c>
-      <c r="E162" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C163" t="s">
+        <v>384</v>
+      </c>
+      <c r="D163" t="s">
+        <v>276</v>
+      </c>
+      <c r="E163" t="s">
+        <v>378</v>
+      </c>
+      <c r="F163" t="s">
         <v>277</v>
       </c>
-      <c r="D163" t="s">
-        <v>379</v>
-      </c>
-      <c r="E163" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C164" t="s">
+        <v>384</v>
+      </c>
+      <c r="D164" t="s">
+        <v>278</v>
+      </c>
+      <c r="E164" t="s">
+        <v>378</v>
+      </c>
+      <c r="F164" t="s">
         <v>279</v>
       </c>
-      <c r="D164" t="s">
-        <v>379</v>
-      </c>
-      <c r="E164" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
+        <v>384</v>
+      </c>
+      <c r="D165" t="s">
+        <v>280</v>
+      </c>
+      <c r="E165" t="s">
+        <v>378</v>
+      </c>
+      <c r="F165" t="s">
         <v>281</v>
       </c>
-      <c r="D165" t="s">
-        <v>379</v>
-      </c>
-      <c r="E165" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C166" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" t="s">
+        <v>282</v>
+      </c>
+      <c r="E166" t="s">
+        <v>378</v>
+      </c>
+      <c r="F166" t="s">
         <v>283</v>
       </c>
-      <c r="D166" t="s">
-        <v>379</v>
-      </c>
-      <c r="E166" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C167" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" t="s">
+        <v>284</v>
+      </c>
+      <c r="E167" t="s">
+        <v>378</v>
+      </c>
+      <c r="F167" t="s">
         <v>285</v>
       </c>
-      <c r="D167" t="s">
-        <v>379</v>
-      </c>
-      <c r="E167" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C168" t="s">
+        <v>384</v>
+      </c>
+      <c r="D168" t="s">
+        <v>286</v>
+      </c>
+      <c r="E168" t="s">
+        <v>378</v>
+      </c>
+      <c r="F168" t="s">
         <v>287</v>
       </c>
-      <c r="D168" t="s">
-        <v>379</v>
-      </c>
-      <c r="E168" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C169" t="s">
+        <v>384</v>
+      </c>
+      <c r="D169" t="s">
+        <v>288</v>
+      </c>
+      <c r="E169" t="s">
+        <v>378</v>
+      </c>
+      <c r="F169" t="s">
         <v>289</v>
       </c>
-      <c r="D169" t="s">
-        <v>379</v>
-      </c>
-      <c r="E169" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" t="s">
+        <v>384</v>
+      </c>
+      <c r="D170" t="s">
+        <v>290</v>
+      </c>
+      <c r="E170" t="s">
+        <v>378</v>
+      </c>
+      <c r="F170" t="s">
         <v>291</v>
       </c>
-      <c r="D170" t="s">
-        <v>379</v>
-      </c>
-      <c r="E170" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C171" t="s">
+        <v>384</v>
+      </c>
+      <c r="D171" t="s">
+        <v>292</v>
+      </c>
+      <c r="E171" t="s">
+        <v>378</v>
+      </c>
+      <c r="F171" t="s">
         <v>293</v>
       </c>
-      <c r="D171" t="s">
-        <v>379</v>
-      </c>
-      <c r="E171" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="E172" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F172" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="D173" t="s">
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F173" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C174" t="s">
-        <v>257</v>
+        <v>384</v>
       </c>
       <c r="D174" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F174" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>176</v>
       </c>
       <c r="B175" t="s">
+        <v>297</v>
+      </c>
+      <c r="C175" t="s">
+        <v>385</v>
+      </c>
+      <c r="D175" t="s">
+        <v>245</v>
+      </c>
+      <c r="E175" t="s">
+        <v>378</v>
+      </c>
+      <c r="F175" t="s">
         <v>298</v>
       </c>
-      <c r="C175" t="s">
-        <v>246</v>
-      </c>
-      <c r="D175" t="s">
-        <v>377</v>
-      </c>
-      <c r="E175" t="s">
-        <v>299</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C176" t="s">
+        <v>385</v>
+      </c>
+      <c r="D176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" t="s">
-        <v>377</v>
-      </c>
       <c r="E176" t="s">
+        <v>378</v>
+      </c>
+      <c r="F176" t="s">
         <v>6</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C177" t="s">
+        <v>385</v>
+      </c>
+      <c r="D177" t="s">
         <v>9</v>
       </c>
-      <c r="D177" t="s">
-        <v>378</v>
-      </c>
       <c r="E177" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F177" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C178" t="s">
+        <v>385</v>
+      </c>
+      <c r="D178" t="s">
         <v>23</v>
       </c>
-      <c r="D178" t="s">
-        <v>379</v>
-      </c>
       <c r="E178" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F178" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C179" t="s">
+        <v>385</v>
+      </c>
+      <c r="D179" t="s">
+        <v>301</v>
+      </c>
+      <c r="E179" t="s">
+        <v>378</v>
+      </c>
+      <c r="F179" t="s">
         <v>302</v>
       </c>
-      <c r="D179" t="s">
-        <v>379</v>
-      </c>
-      <c r="E179" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C180" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" t="s">
         <v>21</v>
       </c>
-      <c r="D180" t="s">
-        <v>379</v>
-      </c>
       <c r="E180" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F180" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
+        <v>385</v>
+      </c>
+      <c r="D181" t="s">
+        <v>304</v>
+      </c>
+      <c r="E181" t="s">
+        <v>378</v>
+      </c>
+      <c r="F181" t="s">
         <v>305</v>
       </c>
-      <c r="D181" t="s">
-        <v>379</v>
-      </c>
-      <c r="E181" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C182" t="s">
+        <v>385</v>
+      </c>
+      <c r="D182" t="s">
         <v>25</v>
       </c>
-      <c r="D182" t="s">
-        <v>379</v>
-      </c>
       <c r="E182" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F182" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C183" t="s">
+        <v>385</v>
+      </c>
+      <c r="D183" t="s">
         <v>70</v>
       </c>
-      <c r="D183" t="s">
-        <v>378</v>
-      </c>
       <c r="E183" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F183" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C184" t="s">
+        <v>385</v>
+      </c>
+      <c r="D184" t="s">
         <v>72</v>
       </c>
-      <c r="D184" t="s">
-        <v>378</v>
-      </c>
       <c r="E184" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="F184" t="s">
+        <v>308</v>
+      </c>
+      <c r="G184" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
+        <v>385</v>
+      </c>
+      <c r="D185" t="s">
+        <v>309</v>
+      </c>
+      <c r="E185" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" t="s">
         <v>310</v>
       </c>
-      <c r="D185" t="s">
-        <v>378</v>
-      </c>
-      <c r="E185" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C186" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" t="s">
+        <v>311</v>
+      </c>
+      <c r="E186" t="s">
+        <v>377</v>
+      </c>
+      <c r="F186" t="s">
         <v>312</v>
       </c>
-      <c r="D186" t="s">
-        <v>378</v>
-      </c>
-      <c r="E186" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C187" t="s">
+        <v>385</v>
+      </c>
+      <c r="D187" t="s">
+        <v>313</v>
+      </c>
+      <c r="E187" t="s">
+        <v>377</v>
+      </c>
+      <c r="F187" t="s">
         <v>314</v>
       </c>
-      <c r="D187" t="s">
-        <v>378</v>
-      </c>
-      <c r="E187" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C188" t="s">
+        <v>385</v>
+      </c>
+      <c r="D188" t="s">
+        <v>315</v>
+      </c>
+      <c r="E188" t="s">
+        <v>378</v>
+      </c>
+      <c r="F188" t="s">
         <v>316</v>
       </c>
-      <c r="D188" t="s">
-        <v>379</v>
-      </c>
-      <c r="E188" t="s">
-        <v>317</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C189" t="s">
+        <v>385</v>
+      </c>
+      <c r="D189" t="s">
+        <v>317</v>
+      </c>
+      <c r="E189" t="s">
+        <v>378</v>
+      </c>
+      <c r="F189" t="s">
         <v>318</v>
       </c>
-      <c r="D189" t="s">
-        <v>379</v>
-      </c>
-      <c r="E189" t="s">
-        <v>319</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C190" t="s">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="E190" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="F190" t="s">
+        <v>318</v>
+      </c>
+      <c r="G190" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C191" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" t="s">
+        <v>320</v>
+      </c>
+      <c r="E191" t="s">
+        <v>377</v>
+      </c>
+      <c r="F191" t="s">
         <v>321</v>
       </c>
-      <c r="D191" t="s">
-        <v>378</v>
-      </c>
-      <c r="E191" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C192" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="E192" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F192" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C193" t="s">
+        <v>385</v>
+      </c>
+      <c r="D193" t="s">
+        <v>323</v>
+      </c>
+      <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>324</v>
       </c>
-      <c r="D193" t="s">
-        <v>379</v>
-      </c>
-      <c r="E193" t="s">
-        <v>325</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
+        <v>385</v>
+      </c>
+      <c r="D194" t="s">
+        <v>325</v>
+      </c>
+      <c r="E194" t="s">
+        <v>377</v>
+      </c>
+      <c r="F194" t="s">
         <v>326</v>
       </c>
-      <c r="D194" t="s">
-        <v>378</v>
-      </c>
-      <c r="E194" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C195" t="s">
+        <v>385</v>
+      </c>
+      <c r="D195" t="s">
+        <v>327</v>
+      </c>
+      <c r="E195" t="s">
+        <v>377</v>
+      </c>
+      <c r="F195" t="s">
         <v>328</v>
       </c>
-      <c r="D195" t="s">
-        <v>378</v>
-      </c>
-      <c r="E195" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C196" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" t="s">
         <v>27</v>
       </c>
-      <c r="D196" t="s">
-        <v>378</v>
-      </c>
       <c r="E196" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F196" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C197" t="s">
+        <v>385</v>
+      </c>
+      <c r="D197" t="s">
+        <v>330</v>
+      </c>
+      <c r="E197" t="s">
+        <v>377</v>
+      </c>
+      <c r="F197" t="s">
         <v>331</v>
       </c>
-      <c r="D197" t="s">
-        <v>378</v>
-      </c>
-      <c r="E197" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C198" t="s">
+        <v>385</v>
+      </c>
+      <c r="D198" t="s">
+        <v>332</v>
+      </c>
+      <c r="E198" t="s">
+        <v>377</v>
+      </c>
+      <c r="F198" t="s">
         <v>333</v>
       </c>
-      <c r="D198" t="s">
-        <v>378</v>
-      </c>
-      <c r="E198" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
+        <v>385</v>
+      </c>
+      <c r="D199" t="s">
+        <v>334</v>
+      </c>
+      <c r="E199" t="s">
+        <v>377</v>
+      </c>
+      <c r="F199" t="s">
         <v>335</v>
       </c>
-      <c r="D199" t="s">
-        <v>378</v>
-      </c>
-      <c r="E199" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C200" t="s">
+        <v>385</v>
+      </c>
+      <c r="D200" t="s">
+        <v>336</v>
+      </c>
+      <c r="E200" t="s">
+        <v>377</v>
+      </c>
+      <c r="F200" t="s">
         <v>337</v>
       </c>
-      <c r="D200" t="s">
-        <v>378</v>
-      </c>
-      <c r="E200" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" t="s">
+        <v>385</v>
+      </c>
+      <c r="D201" t="s">
+        <v>338</v>
+      </c>
+      <c r="E201" t="s">
+        <v>377</v>
+      </c>
+      <c r="F201" t="s">
         <v>339</v>
       </c>
-      <c r="D201" t="s">
-        <v>378</v>
-      </c>
-      <c r="E201" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C202" t="s">
+        <v>385</v>
+      </c>
+      <c r="D202" t="s">
+        <v>340</v>
+      </c>
+      <c r="E202" t="s">
+        <v>377</v>
+      </c>
+      <c r="F202" t="s">
         <v>341</v>
       </c>
-      <c r="D202" t="s">
-        <v>378</v>
-      </c>
-      <c r="E202" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C203" t="s">
+        <v>385</v>
+      </c>
+      <c r="D203" t="s">
+        <v>342</v>
+      </c>
+      <c r="E203" t="s">
+        <v>377</v>
+      </c>
+      <c r="F203" t="s">
         <v>343</v>
       </c>
-      <c r="D203" t="s">
-        <v>378</v>
-      </c>
-      <c r="E203" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C204" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204" t="s">
+        <v>344</v>
+      </c>
+      <c r="E204" t="s">
+        <v>378</v>
+      </c>
+      <c r="F204" t="s">
         <v>345</v>
       </c>
-      <c r="D204" t="s">
-        <v>379</v>
-      </c>
-      <c r="E204" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" t="s">
+        <v>346</v>
+      </c>
+      <c r="E205" t="s">
+        <v>377</v>
+      </c>
+      <c r="F205" t="s">
         <v>347</v>
       </c>
-      <c r="D205" t="s">
-        <v>378</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="G205" t="s">
         <v>348</v>
       </c>
-      <c r="F205" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
+        <v>385</v>
+      </c>
+      <c r="D206" t="s">
+        <v>349</v>
+      </c>
+      <c r="E206" t="s">
+        <v>377</v>
+      </c>
+      <c r="F206" t="s">
         <v>350</v>
       </c>
-      <c r="D206" t="s">
-        <v>378</v>
-      </c>
-      <c r="E206" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C207" t="s">
+        <v>385</v>
+      </c>
+      <c r="D207" t="s">
+        <v>351</v>
+      </c>
+      <c r="E207" t="s">
+        <v>378</v>
+      </c>
+      <c r="F207" t="s">
         <v>352</v>
       </c>
-      <c r="D207" t="s">
-        <v>379</v>
-      </c>
-      <c r="E207" t="s">
-        <v>353</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s">
+        <v>385</v>
+      </c>
+      <c r="D208" t="s">
+        <v>353</v>
+      </c>
+      <c r="E208" t="s">
+        <v>378</v>
+      </c>
+      <c r="F208" t="s">
         <v>354</v>
       </c>
-      <c r="D208" t="s">
-        <v>379</v>
-      </c>
-      <c r="E208" t="s">
-        <v>355</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" t="s">
+        <v>355</v>
+      </c>
+      <c r="E209" t="s">
+        <v>378</v>
+      </c>
+      <c r="F209" t="s">
         <v>356</v>
       </c>
-      <c r="D209" t="s">
-        <v>379</v>
-      </c>
-      <c r="E209" t="s">
-        <v>357</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" t="s">
+        <v>357</v>
+      </c>
+      <c r="E210" t="s">
+        <v>378</v>
+      </c>
+      <c r="F210" t="s">
         <v>358</v>
       </c>
-      <c r="D210" t="s">
-        <v>379</v>
-      </c>
-      <c r="E210" t="s">
-        <v>359</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C211" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" t="s">
+        <v>359</v>
+      </c>
+      <c r="E211" t="s">
+        <v>378</v>
+      </c>
+      <c r="F211" t="s">
         <v>360</v>
       </c>
-      <c r="D211" t="s">
-        <v>379</v>
-      </c>
-      <c r="E211" t="s">
-        <v>361</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
+        <v>385</v>
+      </c>
+      <c r="D212" t="s">
+        <v>361</v>
+      </c>
+      <c r="E212" t="s">
+        <v>377</v>
+      </c>
+      <c r="F212" t="s">
         <v>362</v>
       </c>
-      <c r="D212" t="s">
-        <v>378</v>
-      </c>
-      <c r="E212" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C213" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="D213" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="E213" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
       <c r="F213" t="s">
+        <v>259</v>
+      </c>
+      <c r="G213" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C214" t="s">
+        <v>386</v>
+      </c>
+      <c r="D214" t="s">
         <v>5</v>
       </c>
-      <c r="D214" t="s">
-        <v>377</v>
-      </c>
       <c r="E214" t="s">
+        <v>378</v>
+      </c>
+      <c r="F214" t="s">
         <v>6</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>216</v>
       </c>
       <c r="B215" t="s">
+        <v>363</v>
+      </c>
+      <c r="C215" t="s">
+        <v>386</v>
+      </c>
+      <c r="D215" t="s">
         <v>364</v>
       </c>
-      <c r="C215" t="s">
+      <c r="E215" t="s">
+        <v>377</v>
+      </c>
+      <c r="F215" t="s">
         <v>365</v>
       </c>
-      <c r="D215" t="s">
-        <v>378</v>
-      </c>
-      <c r="E215" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C216" t="s">
+        <v>386</v>
+      </c>
+      <c r="D216" t="s">
+        <v>366</v>
+      </c>
+      <c r="E216" t="s">
+        <v>378</v>
+      </c>
+      <c r="F216" t="s">
         <v>367</v>
       </c>
-      <c r="D216" t="s">
-        <v>379</v>
-      </c>
-      <c r="E216" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C217" t="s">
+        <v>386</v>
+      </c>
+      <c r="D217" t="s">
+        <v>368</v>
+      </c>
+      <c r="E217" t="s">
+        <v>378</v>
+      </c>
+      <c r="F217" t="s">
         <v>369</v>
       </c>
-      <c r="D217" t="s">
-        <v>379</v>
-      </c>
-      <c r="E217" t="s">
-        <v>370</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C218" t="s">
+        <v>386</v>
+      </c>
+      <c r="D218" t="s">
+        <v>370</v>
+      </c>
+      <c r="E218" t="s">
+        <v>378</v>
+      </c>
+      <c r="F218" t="s">
         <v>371</v>
       </c>
-      <c r="D218" t="s">
-        <v>379</v>
-      </c>
-      <c r="E218" t="s">
-        <v>372</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C219" t="s">
+        <v>386</v>
+      </c>
+      <c r="D219" t="s">
+        <v>372</v>
+      </c>
+      <c r="E219" t="s">
+        <v>378</v>
+      </c>
+      <c r="F219" t="s">
         <v>373</v>
       </c>
-      <c r="D219" t="s">
-        <v>379</v>
-      </c>
-      <c r="E219" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C220" t="s">
+        <v>386</v>
+      </c>
+      <c r="D220" t="s">
+        <v>374</v>
+      </c>
+      <c r="E220" t="s">
+        <v>378</v>
+      </c>
+      <c r="F220" t="s">
         <v>375</v>
       </c>
-      <c r="D220" t="s">
-        <v>379</v>
-      </c>
-      <c r="E220" t="s">
-        <v>376</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A4519E-35C5-B64B-87EC-F610F7D2949F}">
+  <dimension ref="A1:A220"/>
+  <sheetViews>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A200" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/HomeCredit_columns_description.xlsx
+++ b/data/HomeCredit_columns_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stewarta/repos/data-prep-visualization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96B140-8397-C544-9B24-3E43CE876F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155663BD-1AE5-B447-929C-CBEE7C7F6507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="2720" windowWidth="27940" windowHeight="11700" xr2:uid="{29B9F9DA-7F4B-F248-9441-0350956296E9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="HomeCredit_columns_description" localSheetId="0">Sheet1!$A$1:$G$220</definedName>
+    <definedName name="HomeCredit_columns_description" localSheetId="0">Sheet1!$A$1:$G$219</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="387">
   <si>
     <t>Table</t>
   </si>
@@ -984,12 +984,6 @@
   </si>
   <si>
     <t>Flag if the application was the last application per day of the client. Sometimes clients apply for more applications a day. Rarely it could also be error in our system that one application is in the database twice</t>
-  </si>
-  <si>
-    <t>NFLAG_MICRO_CASH</t>
-  </si>
-  <si>
-    <t>Flag Micro finance loan</t>
   </si>
   <si>
     <t>RATE_DOWN_PAYMENT</t>
@@ -1575,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44E080-EA83-704D-AB31-ED7BBE59EAAA}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1588,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1603,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1620,13 +1614,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1640,13 +1634,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1660,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1680,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1700,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1720,13 +1714,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1740,13 +1734,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1760,13 +1754,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1780,13 +1774,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1800,13 +1794,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1820,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -1840,13 +1834,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1860,13 +1854,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -1880,13 +1874,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -1900,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1920,13 +1914,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -1940,13 +1934,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -1963,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -1986,13 +1980,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -2009,13 +2003,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
@@ -2032,13 +2026,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2055,13 +2049,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2075,13 +2069,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2095,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -2115,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F26" t="s">
         <v>56</v>
@@ -2135,13 +2129,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -2155,13 +2149,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
@@ -2175,13 +2169,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
@@ -2195,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F30" t="s">
         <v>63</v>
@@ -2215,13 +2209,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -2235,13 +2229,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
@@ -2255,13 +2249,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F33" t="s">
         <v>69</v>
@@ -2275,13 +2269,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F34" t="s">
         <v>71</v>
@@ -2295,13 +2289,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F35" t="s">
         <v>73</v>
@@ -2318,13 +2312,13 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -2338,13 +2332,13 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F37" t="s">
         <v>78</v>
@@ -2358,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
@@ -2378,13 +2372,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F39" t="s">
         <v>82</v>
@@ -2398,13 +2392,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
         <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F40" t="s">
         <v>84</v>
@@ -2418,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
@@ -2438,13 +2432,13 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
         <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
         <v>88</v>
@@ -2458,13 +2452,13 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F43" t="s">
         <v>90</v>
@@ -2481,13 +2475,13 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F44" t="s">
         <v>90</v>
@@ -2504,13 +2498,13 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F45" t="s">
         <v>90</v>
@@ -2527,13 +2521,13 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
         <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -2550,13 +2544,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
@@ -2573,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -2596,13 +2590,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F49" t="s">
         <v>95</v>
@@ -2619,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F50" t="s">
         <v>95</v>
@@ -2642,13 +2636,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F51" t="s">
         <v>95</v>
@@ -2665,13 +2659,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
         <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F52" t="s">
         <v>95</v>
@@ -2688,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D53" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F53" t="s">
         <v>95</v>
@@ -2711,13 +2705,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
         <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
@@ -2734,13 +2728,13 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F55" t="s">
         <v>95</v>
@@ -2757,13 +2751,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
         <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F56" t="s">
         <v>95</v>
@@ -2780,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
         <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
         <v>95</v>
@@ -2803,13 +2797,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F58" t="s">
         <v>95</v>
@@ -2826,13 +2820,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F59" t="s">
         <v>95</v>
@@ -2849,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
         <v>95</v>
@@ -2872,13 +2866,13 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F61" t="s">
         <v>95</v>
@@ -2895,13 +2889,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D62" t="s">
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F62" t="s">
         <v>95</v>
@@ -2918,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D63" t="s">
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -2941,13 +2935,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -2964,13 +2958,13 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D65" t="s">
         <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -2987,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
         <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -3010,13 +3004,13 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -3033,13 +3027,13 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
         <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -3056,13 +3050,13 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
         <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -3079,13 +3073,13 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
         <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -3102,13 +3096,13 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
         <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
         <v>95</v>
@@ -3125,13 +3119,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -3148,13 +3142,13 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
         <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -3171,13 +3165,13 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D74" t="s">
         <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -3194,13 +3188,13 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
         <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F75" t="s">
         <v>95</v>
@@ -3217,13 +3211,13 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
         <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -3240,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -3263,13 +3257,13 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D78" t="s">
         <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F78" t="s">
         <v>95</v>
@@ -3286,13 +3280,13 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D79" t="s">
         <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F79" t="s">
         <v>95</v>
@@ -3309,13 +3303,13 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
         <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F80" t="s">
         <v>95</v>
@@ -3332,13 +3326,13 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
         <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F81" t="s">
         <v>95</v>
@@ -3355,13 +3349,13 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
         <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F82" t="s">
         <v>95</v>
@@ -3378,13 +3372,13 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D83" t="s">
         <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F83" t="s">
         <v>95</v>
@@ -3401,13 +3395,13 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F84" t="s">
         <v>95</v>
@@ -3424,13 +3418,13 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D85" t="s">
         <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F85" t="s">
         <v>95</v>
@@ -3447,13 +3441,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D86" t="s">
         <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F86" t="s">
         <v>95</v>
@@ -3470,13 +3464,13 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
         <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F87" t="s">
         <v>95</v>
@@ -3493,13 +3487,13 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s">
         <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F88" t="s">
         <v>95</v>
@@ -3516,13 +3510,13 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F89" t="s">
         <v>95</v>
@@ -3539,13 +3533,13 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D90" t="s">
         <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F90" t="s">
         <v>95</v>
@@ -3562,13 +3556,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D91" t="s">
         <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F91" t="s">
         <v>95</v>
@@ -3585,13 +3579,13 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D92" t="s">
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F92" t="s">
         <v>95</v>
@@ -3608,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D93" t="s">
         <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F93" t="s">
         <v>143</v>
@@ -3628,13 +3622,13 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D94" t="s">
         <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F94" t="s">
         <v>145</v>
@@ -3648,13 +3642,13 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D95" t="s">
         <v>146</v>
       </c>
       <c r="E95" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F95" t="s">
         <v>147</v>
@@ -3668,13 +3662,13 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
         <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F96" t="s">
         <v>149</v>
@@ -3688,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F97" t="s">
         <v>151</v>
@@ -3708,13 +3702,13 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D98" t="s">
         <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F98" t="s">
         <v>153</v>
@@ -3728,13 +3722,13 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D99" t="s">
         <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F99" t="s">
         <v>155</v>
@@ -3748,13 +3742,13 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D100" t="s">
         <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F100" t="s">
         <v>157</v>
@@ -3768,13 +3762,13 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F101" t="s">
         <v>159</v>
@@ -3788,13 +3782,13 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D102" t="s">
         <v>160</v>
       </c>
       <c r="E102" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F102" t="s">
         <v>161</v>
@@ -3808,13 +3802,13 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D103" t="s">
         <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F103" t="s">
         <v>163</v>
@@ -3828,13 +3822,13 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D104" t="s">
         <v>164</v>
       </c>
       <c r="E104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F104" t="s">
         <v>165</v>
@@ -3848,13 +3842,13 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D105" t="s">
         <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F105" t="s">
         <v>167</v>
@@ -3868,13 +3862,13 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D106" t="s">
         <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F106" t="s">
         <v>169</v>
@@ -3888,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F107" t="s">
         <v>171</v>
@@ -3908,13 +3902,13 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D108" t="s">
         <v>172</v>
       </c>
       <c r="E108" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F108" t="s">
         <v>173</v>
@@ -3928,13 +3922,13 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s">
         <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F109" t="s">
         <v>175</v>
@@ -3948,13 +3942,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D110" t="s">
         <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F110" t="s">
         <v>177</v>
@@ -3968,13 +3962,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s">
         <v>178</v>
       </c>
       <c r="E111" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F111" t="s">
         <v>179</v>
@@ -3988,13 +3982,13 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D112" t="s">
         <v>180</v>
       </c>
       <c r="E112" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F112" t="s">
         <v>181</v>
@@ -4008,13 +4002,13 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
         <v>182</v>
       </c>
       <c r="E113" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F113" t="s">
         <v>183</v>
@@ -4028,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D114" t="s">
         <v>184</v>
       </c>
       <c r="E114" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F114" t="s">
         <v>185</v>
@@ -4048,13 +4042,13 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D115" t="s">
         <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F115" t="s">
         <v>187</v>
@@ -4068,13 +4062,13 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D116" t="s">
         <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F116" t="s">
         <v>189</v>
@@ -4088,13 +4082,13 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D117" t="s">
         <v>190</v>
       </c>
       <c r="E117" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F117" t="s">
         <v>191</v>
@@ -4108,13 +4102,13 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D118" t="s">
         <v>192</v>
       </c>
       <c r="E118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F118" t="s">
         <v>193</v>
@@ -4128,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D119" t="s">
         <v>194</v>
       </c>
       <c r="E119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F119" t="s">
         <v>195</v>
@@ -4148,13 +4142,13 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D120" t="s">
         <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F120" t="s">
         <v>197</v>
@@ -4168,13 +4162,13 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D121" t="s">
         <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F121" t="s">
         <v>199</v>
@@ -4188,13 +4182,13 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D122" t="s">
         <v>200</v>
       </c>
       <c r="E122" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F122" t="s">
         <v>201</v>
@@ -4208,13 +4202,13 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D123" t="s">
         <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F123" t="s">
         <v>203</v>
@@ -4228,13 +4222,13 @@
         <v>204</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>205</v>
@@ -4251,13 +4245,13 @@
         <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D125" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E125" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F125" t="s">
         <v>207</v>
@@ -4274,13 +4268,13 @@
         <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
         <v>208</v>
       </c>
       <c r="E126" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F126" t="s">
         <v>209</v>
@@ -4294,13 +4288,13 @@
         <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D127" t="s">
         <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F127" t="s">
         <v>211</v>
@@ -4317,13 +4311,13 @@
         <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D128" t="s">
         <v>213</v>
       </c>
       <c r="E128" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F128" t="s">
         <v>214</v>
@@ -4340,13 +4334,13 @@
         <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
         <v>215</v>
       </c>
       <c r="E129" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F129" t="s">
         <v>216</v>
@@ -4360,13 +4354,13 @@
         <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s">
         <v>217</v>
       </c>
       <c r="E130" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F130" t="s">
         <v>218</v>
@@ -4383,13 +4377,13 @@
         <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
         <v>219</v>
       </c>
       <c r="E131" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F131" t="s">
         <v>220</v>
@@ -4406,13 +4400,13 @@
         <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D132" t="s">
         <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F132" t="s">
         <v>222</v>
@@ -4426,13 +4420,13 @@
         <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D133" t="s">
         <v>223</v>
       </c>
       <c r="E133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F133" t="s">
         <v>224</v>
@@ -4446,13 +4440,13 @@
         <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D134" t="s">
         <v>225</v>
       </c>
       <c r="E134" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F134" t="s">
         <v>226</v>
@@ -4466,13 +4460,13 @@
         <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s">
         <v>227</v>
       </c>
       <c r="E135" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F135" t="s">
         <v>228</v>
@@ -4486,13 +4480,13 @@
         <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D136" t="s">
         <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
         <v>230</v>
@@ -4506,13 +4500,13 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F137" t="s">
         <v>232</v>
@@ -4526,13 +4520,13 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D138" t="s">
         <v>233</v>
       </c>
       <c r="E138" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F138" t="s">
         <v>234</v>
@@ -4546,13 +4540,13 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D139" t="s">
         <v>235</v>
       </c>
       <c r="E139" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F139" t="s">
         <v>236</v>
@@ -4569,13 +4563,13 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F140" t="s">
         <v>237</v>
@@ -4589,13 +4583,13 @@
         <v>238</v>
       </c>
       <c r="C141" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D141" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E141" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F141" t="s">
         <v>239</v>
@@ -4612,13 +4606,13 @@
         <v>238</v>
       </c>
       <c r="C142" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D142" t="s">
         <v>240</v>
       </c>
       <c r="E142" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F142" t="s">
         <v>241</v>
@@ -4635,13 +4629,13 @@
         <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D143" t="s">
         <v>242</v>
       </c>
       <c r="E143" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F143" t="s">
         <v>243</v>
@@ -4655,13 +4649,13 @@
         <v>244</v>
       </c>
       <c r="C144" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D144" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E144" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F144" t="s">
         <v>246</v>
@@ -4675,13 +4669,13 @@
         <v>244</v>
       </c>
       <c r="C145" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D145" t="s">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4695,13 +4689,13 @@
         <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D146" t="s">
         <v>240</v>
       </c>
       <c r="E146" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F146" t="s">
         <v>247</v>
@@ -4718,13 +4712,13 @@
         <v>244</v>
       </c>
       <c r="C147" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D147" t="s">
         <v>248</v>
       </c>
       <c r="E147" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F147" t="s">
         <v>249</v>
@@ -4738,13 +4732,13 @@
         <v>244</v>
       </c>
       <c r="C148" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D148" t="s">
         <v>250</v>
       </c>
       <c r="E148" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F148" t="s">
         <v>251</v>
@@ -4758,13 +4752,13 @@
         <v>244</v>
       </c>
       <c r="C149" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D149" t="s">
         <v>252</v>
       </c>
       <c r="E149" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F149" t="s">
         <v>253</v>
@@ -4778,13 +4772,13 @@
         <v>244</v>
       </c>
       <c r="C150" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D150" t="s">
         <v>254</v>
       </c>
       <c r="E150" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F150" t="s">
         <v>255</v>
@@ -4798,13 +4792,13 @@
         <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D151" t="s">
         <v>256</v>
       </c>
       <c r="E151" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F151" t="s">
         <v>257</v>
@@ -4818,13 +4812,13 @@
         <v>258</v>
       </c>
       <c r="C152" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D152" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E152" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F152" t="s">
         <v>259</v>
@@ -4841,13 +4835,13 @@
         <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4864,13 +4858,13 @@
         <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D154" t="s">
         <v>240</v>
       </c>
       <c r="E154" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F154" t="s">
         <v>241</v>
@@ -4887,13 +4881,13 @@
         <v>258</v>
       </c>
       <c r="C155" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D155" t="s">
         <v>260</v>
       </c>
       <c r="E155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F155" t="s">
         <v>261</v>
@@ -4907,13 +4901,13 @@
         <v>258</v>
       </c>
       <c r="C156" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D156" t="s">
         <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F156" t="s">
         <v>263</v>
@@ -4927,13 +4921,13 @@
         <v>258</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D157" t="s">
         <v>264</v>
       </c>
       <c r="E157" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F157" t="s">
         <v>265</v>
@@ -4947,13 +4941,13 @@
         <v>258</v>
       </c>
       <c r="C158" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D158" t="s">
         <v>266</v>
       </c>
       <c r="E158" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F158" t="s">
         <v>267</v>
@@ -4967,13 +4961,13 @@
         <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D159" t="s">
         <v>268</v>
       </c>
       <c r="E159" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F159" t="s">
         <v>269</v>
@@ -4987,13 +4981,13 @@
         <v>258</v>
       </c>
       <c r="C160" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s">
         <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F160" t="s">
         <v>271</v>
@@ -5007,13 +5001,13 @@
         <v>258</v>
       </c>
       <c r="C161" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D161" t="s">
         <v>272</v>
       </c>
       <c r="E161" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F161" t="s">
         <v>273</v>
@@ -5027,13 +5021,13 @@
         <v>258</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D162" t="s">
         <v>274</v>
       </c>
       <c r="E162" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F162" t="s">
         <v>275</v>
@@ -5047,13 +5041,13 @@
         <v>258</v>
       </c>
       <c r="C163" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D163" t="s">
         <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F163" t="s">
         <v>277</v>
@@ -5067,13 +5061,13 @@
         <v>258</v>
       </c>
       <c r="C164" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D164" t="s">
         <v>278</v>
       </c>
       <c r="E164" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F164" t="s">
         <v>279</v>
@@ -5087,13 +5081,13 @@
         <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D165" t="s">
         <v>280</v>
       </c>
       <c r="E165" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F165" t="s">
         <v>281</v>
@@ -5107,13 +5101,13 @@
         <v>258</v>
       </c>
       <c r="C166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
         <v>282</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F166" t="s">
         <v>283</v>
@@ -5127,13 +5121,13 @@
         <v>258</v>
       </c>
       <c r="C167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
         <v>284</v>
       </c>
       <c r="E167" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F167" t="s">
         <v>285</v>
@@ -5147,13 +5141,13 @@
         <v>258</v>
       </c>
       <c r="C168" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D168" t="s">
         <v>286</v>
       </c>
       <c r="E168" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F168" t="s">
         <v>287</v>
@@ -5167,13 +5161,13 @@
         <v>258</v>
       </c>
       <c r="C169" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D169" t="s">
         <v>288</v>
       </c>
       <c r="E169" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F169" t="s">
         <v>289</v>
@@ -5187,13 +5181,13 @@
         <v>258</v>
       </c>
       <c r="C170" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D170" t="s">
         <v>290</v>
       </c>
       <c r="E170" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F170" t="s">
         <v>291</v>
@@ -5207,13 +5201,13 @@
         <v>258</v>
       </c>
       <c r="C171" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D171" t="s">
         <v>292</v>
       </c>
       <c r="E171" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F171" t="s">
         <v>293</v>
@@ -5227,13 +5221,13 @@
         <v>258</v>
       </c>
       <c r="C172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D172" t="s">
         <v>252</v>
       </c>
       <c r="E172" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F172" t="s">
         <v>294</v>
@@ -5247,13 +5241,13 @@
         <v>258</v>
       </c>
       <c r="C173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
         <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F173" t="s">
         <v>295</v>
@@ -5267,13 +5261,13 @@
         <v>258</v>
       </c>
       <c r="C174" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D174" t="s">
         <v>256</v>
       </c>
       <c r="E174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F174" t="s">
         <v>296</v>
@@ -5287,13 +5281,13 @@
         <v>297</v>
       </c>
       <c r="C175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D175" t="s">
         <v>245</v>
       </c>
       <c r="E175" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F175" t="s">
         <v>298</v>
@@ -5310,13 +5304,13 @@
         <v>297</v>
       </c>
       <c r="C176" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -5333,13 +5327,13 @@
         <v>297</v>
       </c>
       <c r="C177" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F177" t="s">
         <v>299</v>
@@ -5353,13 +5347,13 @@
         <v>297</v>
       </c>
       <c r="C178" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F178" t="s">
         <v>300</v>
@@ -5373,13 +5367,13 @@
         <v>297</v>
       </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D179" t="s">
         <v>301</v>
       </c>
       <c r="E179" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F179" t="s">
         <v>302</v>
@@ -5393,13 +5387,13 @@
         <v>297</v>
       </c>
       <c r="C180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F180" t="s">
         <v>303</v>
@@ -5413,13 +5407,13 @@
         <v>297</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D181" t="s">
         <v>304</v>
       </c>
       <c r="E181" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F181" t="s">
         <v>305</v>
@@ -5433,13 +5427,13 @@
         <v>297</v>
       </c>
       <c r="C182" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D182" t="s">
         <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F182" t="s">
         <v>306</v>
@@ -5453,13 +5447,13 @@
         <v>297</v>
       </c>
       <c r="C183" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D183" t="s">
         <v>70</v>
       </c>
       <c r="E183" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F183" t="s">
         <v>307</v>
@@ -5473,13 +5467,13 @@
         <v>297</v>
       </c>
       <c r="C184" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D184" t="s">
         <v>72</v>
       </c>
       <c r="E184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F184" t="s">
         <v>308</v>
@@ -5496,13 +5490,13 @@
         <v>297</v>
       </c>
       <c r="C185" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D185" t="s">
         <v>309</v>
       </c>
       <c r="E185" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F185" t="s">
         <v>310</v>
@@ -5516,13 +5510,13 @@
         <v>297</v>
       </c>
       <c r="C186" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
         <v>311</v>
       </c>
       <c r="E186" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F186" t="s">
         <v>312</v>
@@ -5530,39 +5524,42 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
         <v>297</v>
       </c>
       <c r="C187" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D187" t="s">
         <v>313</v>
       </c>
       <c r="E187" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F187" t="s">
         <v>314</v>
       </c>
+      <c r="G187" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>297</v>
       </c>
       <c r="C188" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D188" t="s">
         <v>315</v>
       </c>
       <c r="E188" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F188" t="s">
         <v>316</v>
@@ -5573,22 +5570,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
         <v>297</v>
       </c>
       <c r="C189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
         <v>317</v>
       </c>
       <c r="E189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F189" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G189" t="s">
         <v>91</v>
@@ -5596,105 +5593,102 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
         <v>297</v>
       </c>
       <c r="C190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D190" t="s">
+        <v>318</v>
+      </c>
+      <c r="E190" t="s">
+        <v>375</v>
+      </c>
+      <c r="F190" t="s">
         <v>319</v>
-      </c>
-      <c r="E190" t="s">
-        <v>378</v>
-      </c>
-      <c r="F190" t="s">
-        <v>318</v>
-      </c>
-      <c r="G190" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
         <v>297</v>
       </c>
       <c r="C191" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D191" t="s">
+        <v>252</v>
+      </c>
+      <c r="E191" t="s">
+        <v>375</v>
+      </c>
+      <c r="F191" t="s">
         <v>320</v>
-      </c>
-      <c r="E191" t="s">
-        <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
         <v>297</v>
       </c>
       <c r="C192" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D192" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
         <v>322</v>
       </c>
+      <c r="G192" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
         <v>297</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D193" t="s">
         <v>323</v>
       </c>
       <c r="E193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
         <v>324</v>
       </c>
-      <c r="G193" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
         <v>297</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D194" t="s">
         <v>325</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
         <v>326</v>
@@ -5702,39 +5696,39 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
         <v>297</v>
       </c>
       <c r="C195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D195" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" t="s">
+        <v>375</v>
+      </c>
+      <c r="F195" t="s">
         <v>327</v>
-      </c>
-      <c r="E195" t="s">
-        <v>377</v>
-      </c>
-      <c r="F195" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
         <v>297</v>
       </c>
       <c r="C196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>328</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
         <v>329</v>
@@ -5742,19 +5736,19 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
         <v>297</v>
       </c>
       <c r="C197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D197" t="s">
         <v>330</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
         <v>331</v>
@@ -5762,19 +5756,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>297</v>
       </c>
       <c r="C198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D198" t="s">
         <v>332</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
         <v>333</v>
@@ -5782,19 +5776,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
         <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D199" t="s">
         <v>334</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
         <v>335</v>
@@ -5802,19 +5796,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
         <v>297</v>
       </c>
       <c r="C200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D200" t="s">
         <v>336</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
         <v>337</v>
@@ -5822,19 +5816,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B201" t="s">
         <v>297</v>
       </c>
       <c r="C201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D201" t="s">
         <v>338</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
         <v>339</v>
@@ -5842,19 +5836,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
         <v>297</v>
       </c>
       <c r="C202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D202" t="s">
         <v>340</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
         <v>341</v>
@@ -5862,19 +5856,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
         <v>297</v>
       </c>
       <c r="C203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D203" t="s">
         <v>342</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F203" t="s">
         <v>343</v>
@@ -5882,82 +5876,85 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
         <v>297</v>
       </c>
       <c r="C204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D204" t="s">
         <v>344</v>
       </c>
       <c r="E204" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
         <v>345</v>
       </c>
+      <c r="G204" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
         <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>347</v>
-      </c>
-      <c r="G205" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
         <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D206" t="s">
         <v>349</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F206" t="s">
         <v>350</v>
       </c>
+      <c r="G206" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
         <v>297</v>
       </c>
       <c r="C207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D207" t="s">
         <v>351</v>
       </c>
       <c r="E207" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
         <v>352</v>
@@ -5968,19 +5965,19 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
         <v>297</v>
       </c>
       <c r="C208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D208" t="s">
         <v>353</v>
       </c>
       <c r="E208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
         <v>354</v>
@@ -5991,19 +5988,19 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>297</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D209" t="s">
         <v>355</v>
       </c>
       <c r="E209" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F209" t="s">
         <v>356</v>
@@ -6014,19 +6011,19 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
         <v>297</v>
       </c>
       <c r="C210" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D210" t="s">
         <v>357</v>
       </c>
       <c r="E210" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F210" t="s">
         <v>358</v>
@@ -6037,65 +6034,65 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
         <v>297</v>
       </c>
       <c r="C211" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D211" t="s">
         <v>359</v>
       </c>
       <c r="E211" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F211" t="s">
         <v>360</v>
       </c>
-      <c r="G211" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="C212" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D212" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="E212" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F212" t="s">
-        <v>362</v>
+        <v>259</v>
+      </c>
+      <c r="G212" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C213" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D213" t="s">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F213" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="G213" t="s">
         <v>206</v>
@@ -6103,42 +6100,39 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
+        <v>361</v>
+      </c>
+      <c r="C214" t="s">
+        <v>384</v>
+      </c>
+      <c r="D214" t="s">
+        <v>362</v>
+      </c>
+      <c r="E214" t="s">
+        <v>375</v>
+      </c>
+      <c r="F214" t="s">
         <v>363</v>
-      </c>
-      <c r="C214" t="s">
-        <v>386</v>
-      </c>
-      <c r="D214" t="s">
-        <v>5</v>
-      </c>
-      <c r="E214" t="s">
-        <v>378</v>
-      </c>
-      <c r="F214" t="s">
-        <v>6</v>
-      </c>
-      <c r="G214" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C215" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D215" t="s">
         <v>364</v>
       </c>
       <c r="E215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F215" t="s">
         <v>365</v>
@@ -6146,39 +6140,42 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C216" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D216" t="s">
         <v>366</v>
       </c>
       <c r="E216" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F216" t="s">
         <v>367</v>
       </c>
+      <c r="G216" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C217" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D217" t="s">
         <v>368</v>
       </c>
       <c r="E217" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F217" t="s">
         <v>369</v>
@@ -6189,65 +6186,42 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C218" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D218" t="s">
         <v>370</v>
       </c>
       <c r="E218" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F218" t="s">
         <v>371</v>
       </c>
-      <c r="G218" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C219" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D219" t="s">
         <v>372</v>
       </c>
       <c r="E219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F219" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>221</v>
-      </c>
-      <c r="B220" t="s">
-        <v>363</v>
-      </c>
-      <c r="C220" t="s">
-        <v>386</v>
-      </c>
-      <c r="D220" t="s">
-        <v>374</v>
-      </c>
-      <c r="E220" t="s">
-        <v>378</v>
-      </c>
-      <c r="F220" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6275,1097 +6249,1097 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data/HomeCredit_columns_description.xlsx
+++ b/data/HomeCredit_columns_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stewarta/repos/data-prep-visualization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155663BD-1AE5-B447-929C-CBEE7C7F6507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E93B2-7F98-334D-890B-ACF463801E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="2720" windowWidth="27940" windowHeight="11700" xr2:uid="{29B9F9DA-7F4B-F248-9441-0350956296E9}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="386">
   <si>
     <t>Table</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>POS_CASH_balance.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK_ID_PREV </t>
   </si>
   <si>
     <t>ID of previous credit in Home Credit related to loan in our sample. (One loan in our sample can have 0,1,2 or more previous loans in Home Credit)</t>
@@ -1571,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44E080-EA83-704D-AB31-ED7BBE59EAAA}">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1597,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1614,13 +1611,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1634,13 +1631,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1654,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1674,13 +1671,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1694,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1714,13 +1711,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1734,13 +1731,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1754,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1774,13 +1771,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1794,13 +1791,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1814,13 +1811,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -1834,13 +1831,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -1854,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -1874,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -1894,13 +1891,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1914,13 +1911,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -1934,13 +1931,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -1957,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -1980,13 +1977,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -2003,13 +2000,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
@@ -2026,13 +2023,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2049,13 +2046,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
@@ -2069,13 +2066,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2089,13 +2086,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -2109,13 +2106,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F26" t="s">
         <v>56</v>
@@ -2129,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -2149,13 +2146,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
@@ -2169,13 +2166,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
@@ -2189,13 +2186,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F30" t="s">
         <v>63</v>
@@ -2209,13 +2206,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -2229,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
@@ -2249,13 +2246,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F33" t="s">
         <v>69</v>
@@ -2269,13 +2266,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
         <v>71</v>
@@ -2289,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F35" t="s">
         <v>73</v>
@@ -2312,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
         <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -2332,13 +2329,13 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F37" t="s">
         <v>78</v>
@@ -2352,13 +2349,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
@@ -2372,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
         <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F39" t="s">
         <v>82</v>
@@ -2392,13 +2389,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
         <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F40" t="s">
         <v>84</v>
@@ -2412,13 +2409,13 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
@@ -2432,13 +2429,13 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
         <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F42" t="s">
         <v>88</v>
@@ -2452,13 +2449,13 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F43" t="s">
         <v>90</v>
@@ -2475,13 +2472,13 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F44" t="s">
         <v>90</v>
@@ -2498,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
         <v>90</v>
@@ -2521,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D46" t="s">
         <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -2544,13 +2541,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F47" t="s">
         <v>95</v>
@@ -2567,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F48" t="s">
         <v>95</v>
@@ -2590,13 +2587,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F49" t="s">
         <v>95</v>
@@ -2613,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F50" t="s">
         <v>95</v>
@@ -2636,13 +2633,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D51" t="s">
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F51" t="s">
         <v>95</v>
@@ -2659,13 +2656,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D52" t="s">
         <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F52" t="s">
         <v>95</v>
@@ -2682,13 +2679,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F53" t="s">
         <v>95</v>
@@ -2705,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
         <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
@@ -2728,13 +2725,13 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F55" t="s">
         <v>95</v>
@@ -2751,13 +2748,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
         <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
         <v>95</v>
@@ -2774,13 +2771,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" t="s">
         <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F57" t="s">
         <v>95</v>
@@ -2797,13 +2794,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F58" t="s">
         <v>95</v>
@@ -2820,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F59" t="s">
         <v>95</v>
@@ -2843,13 +2840,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F60" t="s">
         <v>95</v>
@@ -2866,13 +2863,13 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F61" t="s">
         <v>95</v>
@@ -2889,13 +2886,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D62" t="s">
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F62" t="s">
         <v>95</v>
@@ -2912,13 +2909,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F63" t="s">
         <v>95</v>
@@ -2935,13 +2932,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D64" t="s">
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -2958,13 +2955,13 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D65" t="s">
         <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F65" t="s">
         <v>95</v>
@@ -2981,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" t="s">
         <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F66" t="s">
         <v>95</v>
@@ -3004,13 +3001,13 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
         <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F67" t="s">
         <v>95</v>
@@ -3027,13 +3024,13 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" t="s">
         <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F68" t="s">
         <v>95</v>
@@ -3050,13 +3047,13 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D69" t="s">
         <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F69" t="s">
         <v>95</v>
@@ -3073,13 +3070,13 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
         <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F70" t="s">
         <v>95</v>
@@ -3096,13 +3093,13 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D71" t="s">
         <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F71" t="s">
         <v>95</v>
@@ -3119,13 +3116,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
         <v>95</v>
@@ -3142,13 +3139,13 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D73" t="s">
         <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F73" t="s">
         <v>95</v>
@@ -3165,13 +3162,13 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
         <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F74" t="s">
         <v>95</v>
@@ -3188,13 +3185,13 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
         <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
         <v>95</v>
@@ -3211,13 +3208,13 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
         <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F76" t="s">
         <v>95</v>
@@ -3234,13 +3231,13 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D77" t="s">
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F77" t="s">
         <v>95</v>
@@ -3257,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D78" t="s">
         <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F78" t="s">
         <v>95</v>
@@ -3280,13 +3277,13 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
         <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
         <v>95</v>
@@ -3303,13 +3300,13 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D80" t="s">
         <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F80" t="s">
         <v>95</v>
@@ -3326,13 +3323,13 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D81" t="s">
         <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F81" t="s">
         <v>95</v>
@@ -3349,13 +3346,13 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D82" t="s">
         <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F82" t="s">
         <v>95</v>
@@ -3372,13 +3369,13 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D83" t="s">
         <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F83" t="s">
         <v>95</v>
@@ -3395,13 +3392,13 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
         <v>95</v>
@@ -3418,13 +3415,13 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D85" t="s">
         <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F85" t="s">
         <v>95</v>
@@ -3441,13 +3438,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D86" t="s">
         <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F86" t="s">
         <v>95</v>
@@ -3464,13 +3461,13 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D87" t="s">
         <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
         <v>95</v>
@@ -3487,13 +3484,13 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D88" t="s">
         <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F88" t="s">
         <v>95</v>
@@ -3510,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D89" t="s">
         <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
         <v>95</v>
@@ -3533,13 +3530,13 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
         <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
         <v>95</v>
@@ -3556,13 +3553,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D91" t="s">
         <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F91" t="s">
         <v>95</v>
@@ -3579,13 +3576,13 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D92" t="s">
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F92" t="s">
         <v>95</v>
@@ -3602,13 +3599,13 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D93" t="s">
         <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F93" t="s">
         <v>143</v>
@@ -3622,13 +3619,13 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
         <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F94" t="s">
         <v>145</v>
@@ -3642,13 +3639,13 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
         <v>146</v>
       </c>
       <c r="E95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F95" t="s">
         <v>147</v>
@@ -3662,13 +3659,13 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D96" t="s">
         <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
         <v>149</v>
@@ -3682,13 +3679,13 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D97" t="s">
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F97" t="s">
         <v>151</v>
@@ -3702,13 +3699,13 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D98" t="s">
         <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F98" t="s">
         <v>153</v>
@@ -3722,13 +3719,13 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D99" t="s">
         <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F99" t="s">
         <v>155</v>
@@ -3742,13 +3739,13 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
         <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F100" t="s">
         <v>157</v>
@@ -3762,13 +3759,13 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F101" t="s">
         <v>159</v>
@@ -3782,13 +3779,13 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D102" t="s">
         <v>160</v>
       </c>
       <c r="E102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F102" t="s">
         <v>161</v>
@@ -3802,13 +3799,13 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D103" t="s">
         <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
         <v>163</v>
@@ -3822,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D104" t="s">
         <v>164</v>
       </c>
       <c r="E104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F104" t="s">
         <v>165</v>
@@ -3842,13 +3839,13 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D105" t="s">
         <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F105" t="s">
         <v>167</v>
@@ -3862,13 +3859,13 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
         <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F106" t="s">
         <v>169</v>
@@ -3882,13 +3879,13 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D107" t="s">
         <v>170</v>
       </c>
       <c r="E107" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F107" t="s">
         <v>171</v>
@@ -3902,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
         <v>172</v>
       </c>
       <c r="E108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F108" t="s">
         <v>173</v>
@@ -3922,13 +3919,13 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
         <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F109" t="s">
         <v>175</v>
@@ -3942,13 +3939,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D110" t="s">
         <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F110" t="s">
         <v>177</v>
@@ -3962,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s">
         <v>178</v>
       </c>
       <c r="E111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" t="s">
         <v>179</v>
@@ -3982,13 +3979,13 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
         <v>180</v>
       </c>
       <c r="E112" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F112" t="s">
         <v>181</v>
@@ -4002,13 +3999,13 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s">
         <v>182</v>
       </c>
       <c r="E113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F113" t="s">
         <v>183</v>
@@ -4022,13 +4019,13 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D114" t="s">
         <v>184</v>
       </c>
       <c r="E114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F114" t="s">
         <v>185</v>
@@ -4042,13 +4039,13 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D115" t="s">
         <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F115" t="s">
         <v>187</v>
@@ -4062,13 +4059,13 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D116" t="s">
         <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F116" t="s">
         <v>189</v>
@@ -4082,13 +4079,13 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D117" t="s">
         <v>190</v>
       </c>
       <c r="E117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F117" t="s">
         <v>191</v>
@@ -4102,13 +4099,13 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D118" t="s">
         <v>192</v>
       </c>
       <c r="E118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F118" t="s">
         <v>193</v>
@@ -4122,13 +4119,13 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
         <v>194</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F119" t="s">
         <v>195</v>
@@ -4142,13 +4139,13 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D120" t="s">
         <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F120" t="s">
         <v>197</v>
@@ -4162,13 +4159,13 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D121" t="s">
         <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F121" t="s">
         <v>199</v>
@@ -4182,13 +4179,13 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D122" t="s">
         <v>200</v>
       </c>
       <c r="E122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F122" t="s">
         <v>201</v>
@@ -4202,13 +4199,13 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s">
         <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F123" t="s">
         <v>203</v>
@@ -4222,13 +4219,13 @@
         <v>204</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>205</v>
@@ -4245,13 +4242,13 @@
         <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F125" t="s">
         <v>207</v>
@@ -4268,13 +4265,13 @@
         <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D126" t="s">
         <v>208</v>
       </c>
       <c r="E126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F126" t="s">
         <v>209</v>
@@ -4288,13 +4285,13 @@
         <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D127" t="s">
         <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F127" t="s">
         <v>211</v>
@@ -4311,13 +4308,13 @@
         <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D128" t="s">
         <v>213</v>
       </c>
       <c r="E128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F128" t="s">
         <v>214</v>
@@ -4334,13 +4331,13 @@
         <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D129" t="s">
         <v>215</v>
       </c>
       <c r="E129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F129" t="s">
         <v>216</v>
@@ -4354,13 +4351,13 @@
         <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130" t="s">
         <v>217</v>
       </c>
       <c r="E130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F130" t="s">
         <v>218</v>
@@ -4377,13 +4374,13 @@
         <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D131" t="s">
         <v>219</v>
       </c>
       <c r="E131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F131" t="s">
         <v>220</v>
@@ -4400,13 +4397,13 @@
         <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D132" t="s">
         <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F132" t="s">
         <v>222</v>
@@ -4420,13 +4417,13 @@
         <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D133" t="s">
         <v>223</v>
       </c>
       <c r="E133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F133" t="s">
         <v>224</v>
@@ -4440,13 +4437,13 @@
         <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D134" t="s">
         <v>225</v>
       </c>
       <c r="E134" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F134" t="s">
         <v>226</v>
@@ -4460,13 +4457,13 @@
         <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
         <v>227</v>
       </c>
       <c r="E135" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F135" t="s">
         <v>228</v>
@@ -4480,13 +4477,13 @@
         <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D136" t="s">
         <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F136" t="s">
         <v>230</v>
@@ -4500,13 +4497,13 @@
         <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D137" t="s">
         <v>231</v>
       </c>
       <c r="E137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F137" t="s">
         <v>232</v>
@@ -4520,13 +4517,13 @@
         <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D138" t="s">
         <v>233</v>
       </c>
       <c r="E138" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F138" t="s">
         <v>234</v>
@@ -4540,13 +4537,13 @@
         <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D139" t="s">
         <v>235</v>
       </c>
       <c r="E139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F139" t="s">
         <v>236</v>
@@ -4563,13 +4560,13 @@
         <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F140" t="s">
         <v>237</v>
@@ -4583,13 +4580,13 @@
         <v>238</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E141" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F141" t="s">
         <v>239</v>
@@ -4606,13 +4603,13 @@
         <v>238</v>
       </c>
       <c r="C142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D142" t="s">
         <v>240</v>
       </c>
       <c r="E142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F142" t="s">
         <v>241</v>
@@ -4629,13 +4626,13 @@
         <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" t="s">
         <v>242</v>
       </c>
       <c r="E143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F143" t="s">
         <v>243</v>
@@ -4649,16 +4646,16 @@
         <v>244</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D144" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -4669,13 +4666,13 @@
         <v>244</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4689,16 +4686,16 @@
         <v>244</v>
       </c>
       <c r="C146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D146" t="s">
         <v>240</v>
       </c>
       <c r="E146" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F146" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -4712,16 +4709,16 @@
         <v>244</v>
       </c>
       <c r="C147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D147" t="s">
+        <v>247</v>
+      </c>
+      <c r="E147" t="s">
+        <v>375</v>
+      </c>
+      <c r="F147" t="s">
         <v>248</v>
-      </c>
-      <c r="E147" t="s">
-        <v>376</v>
-      </c>
-      <c r="F147" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4732,16 +4729,16 @@
         <v>244</v>
       </c>
       <c r="C148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D148" t="s">
+        <v>249</v>
+      </c>
+      <c r="E148" t="s">
+        <v>375</v>
+      </c>
+      <c r="F148" t="s">
         <v>250</v>
-      </c>
-      <c r="E148" t="s">
-        <v>376</v>
-      </c>
-      <c r="F148" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4752,16 +4749,16 @@
         <v>244</v>
       </c>
       <c r="C149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D149" t="s">
+        <v>251</v>
+      </c>
+      <c r="E149" t="s">
+        <v>374</v>
+      </c>
+      <c r="F149" t="s">
         <v>252</v>
-      </c>
-      <c r="E149" t="s">
-        <v>375</v>
-      </c>
-      <c r="F149" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -4772,16 +4769,16 @@
         <v>244</v>
       </c>
       <c r="C150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D150" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" t="s">
+        <v>375</v>
+      </c>
+      <c r="F150" t="s">
         <v>254</v>
-      </c>
-      <c r="E150" t="s">
-        <v>376</v>
-      </c>
-      <c r="F150" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -4792,16 +4789,16 @@
         <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D151" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" t="s">
+        <v>375</v>
+      </c>
+      <c r="F151" t="s">
         <v>256</v>
-      </c>
-      <c r="E151" t="s">
-        <v>376</v>
-      </c>
-      <c r="F151" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -4809,19 +4806,19 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
+        <v>257</v>
+      </c>
+      <c r="C152" t="s">
+        <v>381</v>
+      </c>
+      <c r="D152" t="s">
+        <v>384</v>
+      </c>
+      <c r="E152" t="s">
+        <v>375</v>
+      </c>
+      <c r="F152" t="s">
         <v>258</v>
-      </c>
-      <c r="C152" t="s">
-        <v>382</v>
-      </c>
-      <c r="D152" t="s">
-        <v>385</v>
-      </c>
-      <c r="E152" t="s">
-        <v>376</v>
-      </c>
-      <c r="F152" t="s">
-        <v>259</v>
       </c>
       <c r="G152" t="s">
         <v>206</v>
@@ -4832,16 +4829,16 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4855,16 +4852,16 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D154" t="s">
         <v>240</v>
       </c>
       <c r="E154" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F154" t="s">
         <v>241</v>
@@ -4878,19 +4875,19 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D155" t="s">
+        <v>259</v>
+      </c>
+      <c r="E155" t="s">
+        <v>375</v>
+      </c>
+      <c r="F155" t="s">
         <v>260</v>
-      </c>
-      <c r="E155" t="s">
-        <v>376</v>
-      </c>
-      <c r="F155" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -4898,19 +4895,19 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D156" t="s">
+        <v>261</v>
+      </c>
+      <c r="E156" t="s">
+        <v>375</v>
+      </c>
+      <c r="F156" t="s">
         <v>262</v>
-      </c>
-      <c r="E156" t="s">
-        <v>376</v>
-      </c>
-      <c r="F156" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -4918,19 +4915,19 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D157" t="s">
+        <v>263</v>
+      </c>
+      <c r="E157" t="s">
+        <v>375</v>
+      </c>
+      <c r="F157" t="s">
         <v>264</v>
-      </c>
-      <c r="E157" t="s">
-        <v>376</v>
-      </c>
-      <c r="F157" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -4938,19 +4935,19 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D158" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" t="s">
+        <v>375</v>
+      </c>
+      <c r="F158" t="s">
         <v>266</v>
-      </c>
-      <c r="E158" t="s">
-        <v>376</v>
-      </c>
-      <c r="F158" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4958,19 +4955,19 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D159" t="s">
+        <v>267</v>
+      </c>
+      <c r="E159" t="s">
+        <v>375</v>
+      </c>
+      <c r="F159" t="s">
         <v>268</v>
-      </c>
-      <c r="E159" t="s">
-        <v>376</v>
-      </c>
-      <c r="F159" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4978,19 +4975,19 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D160" t="s">
+        <v>269</v>
+      </c>
+      <c r="E160" t="s">
+        <v>375</v>
+      </c>
+      <c r="F160" t="s">
         <v>270</v>
-      </c>
-      <c r="E160" t="s">
-        <v>376</v>
-      </c>
-      <c r="F160" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -4998,19 +4995,19 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D161" t="s">
+        <v>271</v>
+      </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
+      <c r="F161" t="s">
         <v>272</v>
-      </c>
-      <c r="E161" t="s">
-        <v>376</v>
-      </c>
-      <c r="F161" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -5018,19 +5015,19 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C162" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D162" t="s">
+        <v>273</v>
+      </c>
+      <c r="E162" t="s">
+        <v>375</v>
+      </c>
+      <c r="F162" t="s">
         <v>274</v>
-      </c>
-      <c r="E162" t="s">
-        <v>376</v>
-      </c>
-      <c r="F162" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5038,19 +5035,19 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C163" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D163" t="s">
+        <v>275</v>
+      </c>
+      <c r="E163" t="s">
+        <v>375</v>
+      </c>
+      <c r="F163" t="s">
         <v>276</v>
-      </c>
-      <c r="E163" t="s">
-        <v>376</v>
-      </c>
-      <c r="F163" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5058,19 +5055,19 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D164" t="s">
+        <v>277</v>
+      </c>
+      <c r="E164" t="s">
+        <v>375</v>
+      </c>
+      <c r="F164" t="s">
         <v>278</v>
-      </c>
-      <c r="E164" t="s">
-        <v>376</v>
-      </c>
-      <c r="F164" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5078,19 +5075,19 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C165" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D165" t="s">
+        <v>279</v>
+      </c>
+      <c r="E165" t="s">
+        <v>375</v>
+      </c>
+      <c r="F165" t="s">
         <v>280</v>
-      </c>
-      <c r="E165" t="s">
-        <v>376</v>
-      </c>
-      <c r="F165" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -5098,19 +5095,19 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D166" t="s">
+        <v>281</v>
+      </c>
+      <c r="E166" t="s">
+        <v>375</v>
+      </c>
+      <c r="F166" t="s">
         <v>282</v>
-      </c>
-      <c r="E166" t="s">
-        <v>376</v>
-      </c>
-      <c r="F166" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -5118,19 +5115,19 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D167" t="s">
+        <v>283</v>
+      </c>
+      <c r="E167" t="s">
+        <v>375</v>
+      </c>
+      <c r="F167" t="s">
         <v>284</v>
-      </c>
-      <c r="E167" t="s">
-        <v>376</v>
-      </c>
-      <c r="F167" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5138,19 +5135,19 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D168" t="s">
+        <v>285</v>
+      </c>
+      <c r="E168" t="s">
+        <v>375</v>
+      </c>
+      <c r="F168" t="s">
         <v>286</v>
-      </c>
-      <c r="E168" t="s">
-        <v>376</v>
-      </c>
-      <c r="F168" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5158,19 +5155,19 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D169" t="s">
+        <v>287</v>
+      </c>
+      <c r="E169" t="s">
+        <v>375</v>
+      </c>
+      <c r="F169" t="s">
         <v>288</v>
-      </c>
-      <c r="E169" t="s">
-        <v>376</v>
-      </c>
-      <c r="F169" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5178,19 +5175,19 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C170" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D170" t="s">
+        <v>289</v>
+      </c>
+      <c r="E170" t="s">
+        <v>375</v>
+      </c>
+      <c r="F170" t="s">
         <v>290</v>
-      </c>
-      <c r="E170" t="s">
-        <v>376</v>
-      </c>
-      <c r="F170" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -5198,19 +5195,19 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C171" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D171" t="s">
+        <v>291</v>
+      </c>
+      <c r="E171" t="s">
+        <v>375</v>
+      </c>
+      <c r="F171" t="s">
         <v>292</v>
-      </c>
-      <c r="E171" t="s">
-        <v>376</v>
-      </c>
-      <c r="F171" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5218,19 +5215,19 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D172" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E172" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5238,19 +5235,19 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E173" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -5258,19 +5255,19 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5278,19 +5275,19 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
+        <v>296</v>
+      </c>
+      <c r="C175" t="s">
+        <v>382</v>
+      </c>
+      <c r="D175" t="s">
+        <v>384</v>
+      </c>
+      <c r="E175" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" t="s">
         <v>297</v>
-      </c>
-      <c r="C175" t="s">
-        <v>383</v>
-      </c>
-      <c r="D175" t="s">
-        <v>245</v>
-      </c>
-      <c r="E175" t="s">
-        <v>376</v>
-      </c>
-      <c r="F175" t="s">
-        <v>298</v>
       </c>
       <c r="G175" t="s">
         <v>206</v>
@@ -5301,16 +5298,16 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -5324,19 +5321,19 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D177" t="s">
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F177" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -5344,19 +5341,19 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F178" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -5364,19 +5361,19 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D179" t="s">
+        <v>300</v>
+      </c>
+      <c r="E179" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" t="s">
         <v>301</v>
-      </c>
-      <c r="E179" t="s">
-        <v>376</v>
-      </c>
-      <c r="F179" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -5384,19 +5381,19 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F180" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -5404,19 +5401,19 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
+        <v>303</v>
+      </c>
+      <c r="E181" t="s">
+        <v>375</v>
+      </c>
+      <c r="F181" t="s">
         <v>304</v>
-      </c>
-      <c r="E181" t="s">
-        <v>376</v>
-      </c>
-      <c r="F181" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5424,19 +5421,19 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D182" t="s">
         <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -5444,19 +5441,19 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D183" t="s">
         <v>70</v>
       </c>
       <c r="E183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -5464,19 +5461,19 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C184" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
         <v>72</v>
       </c>
       <c r="E184" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F184" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G184" t="s">
         <v>74</v>
@@ -5487,19 +5484,19 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
+        <v>308</v>
+      </c>
+      <c r="E185" t="s">
+        <v>374</v>
+      </c>
+      <c r="F185" t="s">
         <v>309</v>
-      </c>
-      <c r="E185" t="s">
-        <v>375</v>
-      </c>
-      <c r="F185" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -5507,19 +5504,19 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D186" t="s">
+        <v>310</v>
+      </c>
+      <c r="E186" t="s">
+        <v>374</v>
+      </c>
+      <c r="F186" t="s">
         <v>311</v>
-      </c>
-      <c r="E186" t="s">
-        <v>375</v>
-      </c>
-      <c r="F186" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -5527,19 +5524,19 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
+        <v>312</v>
+      </c>
+      <c r="E187" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" t="s">
         <v>313</v>
-      </c>
-      <c r="E187" t="s">
-        <v>376</v>
-      </c>
-      <c r="F187" t="s">
-        <v>314</v>
       </c>
       <c r="G187" t="s">
         <v>91</v>
@@ -5550,19 +5547,19 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D188" t="s">
+        <v>314</v>
+      </c>
+      <c r="E188" t="s">
+        <v>375</v>
+      </c>
+      <c r="F188" t="s">
         <v>315</v>
-      </c>
-      <c r="E188" t="s">
-        <v>376</v>
-      </c>
-      <c r="F188" t="s">
-        <v>316</v>
       </c>
       <c r="G188" t="s">
         <v>91</v>
@@ -5573,19 +5570,19 @@
         <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D189" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E189" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G189" t="s">
         <v>91</v>
@@ -5596,19 +5593,19 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D190" t="s">
+        <v>317</v>
+      </c>
+      <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>318</v>
-      </c>
-      <c r="E190" t="s">
-        <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -5616,19 +5613,19 @@
         <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D191" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -5636,19 +5633,19 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D192" t="s">
+        <v>320</v>
+      </c>
+      <c r="E192" t="s">
+        <v>375</v>
+      </c>
+      <c r="F192" t="s">
         <v>321</v>
-      </c>
-      <c r="E192" t="s">
-        <v>376</v>
-      </c>
-      <c r="F192" t="s">
-        <v>322</v>
       </c>
       <c r="G192" t="s">
         <v>42</v>
@@ -5659,19 +5656,19 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D193" t="s">
+        <v>322</v>
+      </c>
+      <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>323</v>
-      </c>
-      <c r="E193" t="s">
-        <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -5679,19 +5676,19 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C194" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D194" t="s">
+        <v>324</v>
+      </c>
+      <c r="E194" t="s">
+        <v>374</v>
+      </c>
+      <c r="F194" t="s">
         <v>325</v>
-      </c>
-      <c r="E194" t="s">
-        <v>375</v>
-      </c>
-      <c r="F194" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -5699,19 +5696,19 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -5719,19 +5716,19 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
+        <v>327</v>
+      </c>
+      <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>328</v>
-      </c>
-      <c r="E196" t="s">
-        <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -5739,19 +5736,19 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
+        <v>329</v>
+      </c>
+      <c r="E197" t="s">
+        <v>374</v>
+      </c>
+      <c r="F197" t="s">
         <v>330</v>
-      </c>
-      <c r="E197" t="s">
-        <v>375</v>
-      </c>
-      <c r="F197" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -5759,19 +5756,19 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D198" t="s">
+        <v>331</v>
+      </c>
+      <c r="E198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" t="s">
         <v>332</v>
-      </c>
-      <c r="E198" t="s">
-        <v>375</v>
-      </c>
-      <c r="F198" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5779,19 +5776,19 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D199" t="s">
+        <v>333</v>
+      </c>
+      <c r="E199" t="s">
+        <v>374</v>
+      </c>
+      <c r="F199" t="s">
         <v>334</v>
-      </c>
-      <c r="E199" t="s">
-        <v>375</v>
-      </c>
-      <c r="F199" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -5799,19 +5796,19 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D200" t="s">
+        <v>335</v>
+      </c>
+      <c r="E200" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" t="s">
         <v>336</v>
-      </c>
-      <c r="E200" t="s">
-        <v>375</v>
-      </c>
-      <c r="F200" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -5819,19 +5816,19 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D201" t="s">
+        <v>337</v>
+      </c>
+      <c r="E201" t="s">
+        <v>374</v>
+      </c>
+      <c r="F201" t="s">
         <v>338</v>
-      </c>
-      <c r="E201" t="s">
-        <v>375</v>
-      </c>
-      <c r="F201" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -5839,19 +5836,19 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D202" t="s">
+        <v>339</v>
+      </c>
+      <c r="E202" t="s">
+        <v>374</v>
+      </c>
+      <c r="F202" t="s">
         <v>340</v>
-      </c>
-      <c r="E202" t="s">
-        <v>375</v>
-      </c>
-      <c r="F202" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -5859,19 +5856,19 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D203" t="s">
+        <v>341</v>
+      </c>
+      <c r="E203" t="s">
+        <v>375</v>
+      </c>
+      <c r="F203" t="s">
         <v>342</v>
-      </c>
-      <c r="E203" t="s">
-        <v>376</v>
-      </c>
-      <c r="F203" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -5879,22 +5876,22 @@
         <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D204" t="s">
+        <v>343</v>
+      </c>
+      <c r="E204" t="s">
+        <v>374</v>
+      </c>
+      <c r="F204" t="s">
         <v>344</v>
       </c>
-      <c r="E204" t="s">
-        <v>375</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>345</v>
-      </c>
-      <c r="G204" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -5902,19 +5899,19 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D205" t="s">
+        <v>346</v>
+      </c>
+      <c r="E205" t="s">
+        <v>374</v>
+      </c>
+      <c r="F205" t="s">
         <v>347</v>
-      </c>
-      <c r="E205" t="s">
-        <v>375</v>
-      </c>
-      <c r="F205" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -5922,19 +5919,19 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D206" t="s">
+        <v>348</v>
+      </c>
+      <c r="E206" t="s">
+        <v>375</v>
+      </c>
+      <c r="F206" t="s">
         <v>349</v>
-      </c>
-      <c r="E206" t="s">
-        <v>376</v>
-      </c>
-      <c r="F206" t="s">
-        <v>350</v>
       </c>
       <c r="G206" t="s">
         <v>42</v>
@@ -5945,19 +5942,19 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D207" t="s">
+        <v>350</v>
+      </c>
+      <c r="E207" t="s">
+        <v>375</v>
+      </c>
+      <c r="F207" t="s">
         <v>351</v>
-      </c>
-      <c r="E207" t="s">
-        <v>376</v>
-      </c>
-      <c r="F207" t="s">
-        <v>352</v>
       </c>
       <c r="G207" t="s">
         <v>42</v>
@@ -5968,19 +5965,19 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D208" t="s">
+        <v>352</v>
+      </c>
+      <c r="E208" t="s">
+        <v>375</v>
+      </c>
+      <c r="F208" t="s">
         <v>353</v>
-      </c>
-      <c r="E208" t="s">
-        <v>376</v>
-      </c>
-      <c r="F208" t="s">
-        <v>354</v>
       </c>
       <c r="G208" t="s">
         <v>42</v>
@@ -5991,19 +5988,19 @@
         <v>211</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D209" t="s">
+        <v>354</v>
+      </c>
+      <c r="E209" t="s">
+        <v>375</v>
+      </c>
+      <c r="F209" t="s">
         <v>355</v>
-      </c>
-      <c r="E209" t="s">
-        <v>376</v>
-      </c>
-      <c r="F209" t="s">
-        <v>356</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -6014,19 +6011,19 @@
         <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D210" t="s">
+        <v>356</v>
+      </c>
+      <c r="E210" t="s">
+        <v>375</v>
+      </c>
+      <c r="F210" t="s">
         <v>357</v>
-      </c>
-      <c r="E210" t="s">
-        <v>376</v>
-      </c>
-      <c r="F210" t="s">
-        <v>358</v>
       </c>
       <c r="G210" t="s">
         <v>42</v>
@@ -6037,19 +6034,19 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D211" t="s">
+        <v>358</v>
+      </c>
+      <c r="E211" t="s">
+        <v>374</v>
+      </c>
+      <c r="F211" t="s">
         <v>359</v>
-      </c>
-      <c r="E211" t="s">
-        <v>375</v>
-      </c>
-      <c r="F211" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6057,19 +6054,19 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C212" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212" t="s">
         <v>384</v>
       </c>
-      <c r="D212" t="s">
-        <v>245</v>
-      </c>
       <c r="E212" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G212" t="s">
         <v>206</v>
@@ -6080,16 +6077,16 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D213" t="s">
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F213" t="s">
         <v>6</v>
@@ -6103,19 +6100,19 @@
         <v>216</v>
       </c>
       <c r="B214" t="s">
+        <v>360</v>
+      </c>
+      <c r="C214" t="s">
+        <v>383</v>
+      </c>
+      <c r="D214" t="s">
         <v>361</v>
       </c>
-      <c r="C214" t="s">
-        <v>384</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
+        <v>374</v>
+      </c>
+      <c r="F214" t="s">
         <v>362</v>
-      </c>
-      <c r="E214" t="s">
-        <v>375</v>
-      </c>
-      <c r="F214" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -6123,19 +6120,19 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C215" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D215" t="s">
+        <v>363</v>
+      </c>
+      <c r="E215" t="s">
+        <v>375</v>
+      </c>
+      <c r="F215" t="s">
         <v>364</v>
-      </c>
-      <c r="E215" t="s">
-        <v>376</v>
-      </c>
-      <c r="F215" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -6143,19 +6140,19 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C216" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D216" t="s">
+        <v>365</v>
+      </c>
+      <c r="E216" t="s">
+        <v>375</v>
+      </c>
+      <c r="F216" t="s">
         <v>366</v>
-      </c>
-      <c r="E216" t="s">
-        <v>376</v>
-      </c>
-      <c r="F216" t="s">
-        <v>367</v>
       </c>
       <c r="G216" t="s">
         <v>42</v>
@@ -6166,19 +6163,19 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D217" t="s">
+        <v>367</v>
+      </c>
+      <c r="E217" t="s">
+        <v>375</v>
+      </c>
+      <c r="F217" t="s">
         <v>368</v>
-      </c>
-      <c r="E217" t="s">
-        <v>376</v>
-      </c>
-      <c r="F217" t="s">
-        <v>369</v>
       </c>
       <c r="G217" t="s">
         <v>42</v>
@@ -6189,19 +6186,19 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C218" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D218" t="s">
+        <v>369</v>
+      </c>
+      <c r="E218" t="s">
+        <v>375</v>
+      </c>
+      <c r="F218" t="s">
         <v>370</v>
-      </c>
-      <c r="E218" t="s">
-        <v>376</v>
-      </c>
-      <c r="F218" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -6209,19 +6206,19 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C219" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D219" t="s">
+        <v>371</v>
+      </c>
+      <c r="E219" t="s">
+        <v>375</v>
+      </c>
+      <c r="F219" t="s">
         <v>372</v>
-      </c>
-      <c r="E219" t="s">
-        <v>376</v>
-      </c>
-      <c r="F219" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6249,1097 +6246,1097 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/data/HomeCredit_columns_description.xlsx
+++ b/data/HomeCredit_columns_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stewarta/repos/data-prep-visualization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E93B2-7F98-334D-890B-ACF463801E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143B20A-6C49-F449-A8E7-774DDF3ACB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="2720" windowWidth="27940" windowHeight="11700" xr2:uid="{29B9F9DA-7F4B-F248-9441-0350956296E9}"/>
   </bookViews>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44E080-EA83-704D-AB31-ED7BBE59EAAA}">
   <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>205</v>
@@ -4248,7 +4248,7 @@
         <v>385</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F125" t="s">
         <v>207</v>
@@ -4586,7 +4586,7 @@
         <v>385</v>
       </c>
       <c r="E141" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F141" t="s">
         <v>239</v>
@@ -4652,7 +4652,7 @@
         <v>384</v>
       </c>
       <c r="E144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F144" t="s">
         <v>245</v>
@@ -4672,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4815,7 +4815,7 @@
         <v>384</v>
       </c>
       <c r="E152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F152" t="s">
         <v>258</v>
@@ -4838,7 +4838,7 @@
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -5284,7 +5284,7 @@
         <v>384</v>
       </c>
       <c r="E175" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F175" t="s">
         <v>297</v>
@@ -5307,7 +5307,7 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -6063,7 +6063,7 @@
         <v>384</v>
       </c>
       <c r="E212" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F212" t="s">
         <v>258</v>
@@ -6086,7 +6086,7 @@
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F213" t="s">
         <v>6</v>
